--- a/observer_study_glide_v1_merge.xlsx
+++ b/observer_study_glide_v1_merge.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakob/Dropbox/GithubMacbook/synth-user-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521F0F61-0F22-E249-82D7-92F5693034EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95517B6E-1F56-C744-B2B0-4892DFA7F3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33580" windowHeight="18880" activeTab="1" xr2:uid="{28CC47A8-CD98-FE4A-9C7E-76A22A018B7F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33580" windowHeight="18880" xr2:uid="{28CC47A8-CD98-FE4A-9C7E-76A22A018B7F}"/>
   </bookViews>
   <sheets>
     <sheet name="raw data" sheetId="1" r:id="rId1"/>
-    <sheet name="matrix" sheetId="2" r:id="rId2"/>
+    <sheet name="matrix" sheetId="3" r:id="rId2"/>
+    <sheet name="matrix_vis" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="335">
   <si>
     <t>A microscopic image of the brain</t>
   </si>
@@ -1442,7 +1443,14 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="59">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1956,6 +1964,583 @@
     <dxf>
       <border>
         <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
           <color indexed="64"/>
         </top>
       </border>
@@ -2026,13 +2611,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2305,20 +2883,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C716B3AC-C52E-C444-9E9E-242BD063B25B}" name="Tabelle1" displayName="Tabelle1" ref="A1:I273" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" tableBorderDxfId="34" totalsRowBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C716B3AC-C52E-C444-9E9E-242BD063B25B}" name="Tabelle1" displayName="Tabelle1" ref="A1:I273" totalsRowShown="0" headerRowDxfId="58" headerRowBorderDxfId="57" tableBorderDxfId="56" totalsRowBorderDxfId="55">
   <autoFilter ref="A1:I273" xr:uid="{C716B3AC-C52E-C444-9E9E-242BD063B25B}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{A088CE83-6D36-9F41-8E82-0DCA8EFD9FAE}" name="Prompt" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{27A7404D-3E59-0946-A0E2-039D57CFBDDC}" name="Style_Observer1" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{1871995B-7E6D-7C40-B010-B16042EFC6FD}" name="Content_Observer1" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{8A6EE71D-B9DA-4F48-AA15-89019667E4EF}" name="Style_Observer2" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{BCC42969-74DE-C244-AAAC-B1E164BA64A4}" name="Content_Observer2" dataDxfId="28"/>
-    <tableColumn id="12" xr3:uid="{3FF54066-71F9-B242-9973-3A5A64B1C4DA}" name="Style_Observer3" dataDxfId="27"/>
-    <tableColumn id="13" xr3:uid="{EAF8AE8E-490E-BB4C-930E-3A60BB7E47E5}" name="Content_Observer3" dataDxfId="26"/>
-    <tableColumn id="16" xr3:uid="{900FE659-D334-0D41-896F-E5BA0159EE8A}" name="Style_Median" dataDxfId="25">
+    <tableColumn id="1" xr3:uid="{A088CE83-6D36-9F41-8E82-0DCA8EFD9FAE}" name="Prompt" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{27A7404D-3E59-0946-A0E2-039D57CFBDDC}" name="Style_Observer1" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{1871995B-7E6D-7C40-B010-B16042EFC6FD}" name="Content_Observer1" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{8A6EE71D-B9DA-4F48-AA15-89019667E4EF}" name="Style_Observer2" dataDxfId="51"/>
+    <tableColumn id="8" xr3:uid="{BCC42969-74DE-C244-AAAC-B1E164BA64A4}" name="Content_Observer2" dataDxfId="50"/>
+    <tableColumn id="12" xr3:uid="{3FF54066-71F9-B242-9973-3A5A64B1C4DA}" name="Style_Observer3" dataDxfId="49"/>
+    <tableColumn id="13" xr3:uid="{EAF8AE8E-490E-BB4C-930E-3A60BB7E47E5}" name="Content_Observer3" dataDxfId="48"/>
+    <tableColumn id="16" xr3:uid="{900FE659-D334-0D41-896F-E5BA0159EE8A}" name="Style_Median" dataDxfId="47">
       <calculatedColumnFormula>IF(COUNTIF(Tabelle1[[#This Row],[Style_Observer1]:[Content_Observer3]],"nonsensical")=0,MEDIAN(B2,D2,F2),"nonsensical")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{331EDEE1-5E4A-C143-A14B-DC82294FCB2C}" name="Content_Median" dataDxfId="24">
+    <tableColumn id="17" xr3:uid="{331EDEE1-5E4A-C143-A14B-DC82294FCB2C}" name="Content_Median" dataDxfId="46">
       <calculatedColumnFormula>IF(COUNTIF(Tabelle1[[#This Row],[Style_Observer1]:[Content_Observer3]],"nonsensical")=0,MEDIAN(C2,E2,G2),"nonsensical")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2327,26 +2905,52 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{41D25344-47BE-3341-8F4E-C7AB1A0D24BB}" name="Tabelle2" displayName="Tabelle2" ref="A1:Q36" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E8B36B4E-1E86-C249-A253-3159FBDFEDD1}" name="Tabelle24" displayName="Tabelle24" ref="A1:Q35" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="19">
+  <autoFilter ref="A1:Q35" xr:uid="{41D25344-47BE-3341-8F4E-C7AB1A0D24BB}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{33A0D8B2-408C-DC49-BDA4-0DBB7437E75E}" name="prompt" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{D2606102-6A09-5842-B061-E7725ED7B290}" name="microscopy style" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{6088E650-9A58-6F47-9C63-CB0B9BF3F95D}" name="microscopy content" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{6A2C9237-C671-024C-A69E-268C7826BDCC}" name="histopath style" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{17095155-A129-B843-90E8-0A416AB78DF0}" name="histopath content" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{BA923176-6DDD-924A-80B9-0CE6EFCC5E6B}" name="x-ray img. style" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{F6FAA1C3-A769-9F4D-9E28-1CDC11DD6D85}" name="x-ray img. content" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{706FBD21-D43D-0C41-AD26-AD353368225C}" name="MR image style" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{DBD33B4E-1FB4-E840-9033-E8157E3A9E6F}" name="MR image content" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{869668F9-3939-5B4F-B3BE-F93D0AB6DCCA}" name="CT image style" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{6E5B008A-9FCE-E849-B161-C46AEC7F304E}" name="CT image content" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{94C94545-2656-A141-A0ED-A6E3AC1B8D21}" name="photograph style" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{FD94CC94-AE00-F54A-BF22-8386ACC3FBF5}" name="photograph content" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{CAF83977-6639-E845-A562-0A83957BC813}" name="sci poster style" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{E2AD0FA4-6D28-5D41-8A4A-4682E0D8B7C0}" name="sci poster content" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{D5536FC8-690F-D541-92E9-95D5FB040AFE}" name="illustration style" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{024A6FF4-1894-3145-A65A-55141C48E9CA}" name="illustration content" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{41D25344-47BE-3341-8F4E-C7AB1A0D24BB}" name="Tabelle2" displayName="Tabelle2" ref="A1:Q36" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42" totalsRowBorderDxfId="41">
   <autoFilter ref="A1:Q36" xr:uid="{41D25344-47BE-3341-8F4E-C7AB1A0D24BB}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{06013636-B44B-5042-B75E-784B7A069238}" name="prompt" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{7C11440A-81B1-784B-8D3B-ACEBD8C02ACE}" name="microscopy style" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{9CA64D4A-B98D-0548-B485-2EDF5FB39713}" name="microscopy content" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{8F5CAE55-AB66-0B4F-8EF2-150CC5A4E799}" name="histopath style" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{86E784C1-1E17-374E-9E50-010BAB71D6E3}" name="histopath content" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{47E4944D-DA1E-4249-95EE-52B25D72BB3A}" name="x-ray img. style" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{4F4B773E-A4E5-884F-A851-736604FA9E00}" name="x-ray img. content" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{DF0B097B-7B52-9349-9623-684963C2733E}" name="MR image style" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{D87AA7C8-08D5-4F42-B974-EAAFDBBF15DC}" name="MR image content" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{B5751B67-6B15-A34B-A90D-8D447D3CE608}" name="CT image style" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{9A30E483-AC7D-DF43-B3D9-254A44B9DB41}" name="CT image content" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{67F1638E-B861-6C48-8071-8711C0033991}" name="photograph style" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{85F10E09-C727-CF4D-A7BB-DCFD50C43FB8}" name="photograph content" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{80FA280C-D07F-C447-9D6D-1662BF43BAEB}" name="sci poster style" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{32B874A0-41C5-1445-8215-4B9033D7E75C}" name="sci poster content" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{6EC1D3F0-68C6-894D-9EE4-F738F86873D1}" name="illustration style" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{7D371787-B8EF-6644-8F7B-D66BEF0EBD8C}" name="illustration content" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{06013636-B44B-5042-B75E-784B7A069238}" name="prompt" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{7C11440A-81B1-784B-8D3B-ACEBD8C02ACE}" name="microscopy style" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{9CA64D4A-B98D-0548-B485-2EDF5FB39713}" name="microscopy content" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{8F5CAE55-AB66-0B4F-8EF2-150CC5A4E799}" name="histopath style" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{86E784C1-1E17-374E-9E50-010BAB71D6E3}" name="histopath content" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{47E4944D-DA1E-4249-95EE-52B25D72BB3A}" name="x-ray img. style" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{4F4B773E-A4E5-884F-A851-736604FA9E00}" name="x-ray img. content" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{DF0B097B-7B52-9349-9623-684963C2733E}" name="MR image style" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{D87AA7C8-08D5-4F42-B974-EAAFDBBF15DC}" name="MR image content" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{B5751B67-6B15-A34B-A90D-8D447D3CE608}" name="CT image style" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{9A30E483-AC7D-DF43-B3D9-254A44B9DB41}" name="CT image content" dataDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{67F1638E-B861-6C48-8071-8711C0033991}" name="photograph style" dataDxfId="29"/>
+    <tableColumn id="13" xr3:uid="{85F10E09-C727-CF4D-A7BB-DCFD50C43FB8}" name="photograph content" dataDxfId="28"/>
+    <tableColumn id="14" xr3:uid="{80FA280C-D07F-C447-9D6D-1662BF43BAEB}" name="sci poster style" dataDxfId="27"/>
+    <tableColumn id="15" xr3:uid="{32B874A0-41C5-1445-8215-4B9033D7E75C}" name="sci poster content" dataDxfId="26"/>
+    <tableColumn id="16" xr3:uid="{6EC1D3F0-68C6-894D-9EE4-F738F86873D1}" name="illustration style" dataDxfId="25"/>
+    <tableColumn id="17" xr3:uid="{7D371787-B8EF-6644-8F7B-D66BEF0EBD8C}" name="illustration content" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2651,7 +3255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87748135-191D-0046-BB58-2417C92212D4}">
   <dimension ref="A1:I273"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" zoomScale="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="75" workbookViewId="0">
       <selection activeCell="F214" sqref="F214"/>
     </sheetView>
   </sheetViews>
@@ -11152,10 +11756,1782 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB1B323-EA91-B74B-A19B-1FE933F87E78}">
+  <dimension ref="A1:Q35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="17" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="P1" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q1" s="32" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="33">
+        <v>1</v>
+      </c>
+      <c r="C2" s="34">
+        <v>1</v>
+      </c>
+      <c r="D2" s="33">
+        <v>3</v>
+      </c>
+      <c r="E2" s="34">
+        <v>2</v>
+      </c>
+      <c r="F2" s="33">
+        <v>2</v>
+      </c>
+      <c r="G2" s="34">
+        <v>1</v>
+      </c>
+      <c r="H2" s="33">
+        <v>1</v>
+      </c>
+      <c r="I2" s="34">
+        <v>0</v>
+      </c>
+      <c r="J2" s="33">
+        <v>0</v>
+      </c>
+      <c r="K2" s="34">
+        <v>0</v>
+      </c>
+      <c r="L2" s="33">
+        <v>1</v>
+      </c>
+      <c r="M2" s="34">
+        <v>1</v>
+      </c>
+      <c r="N2" s="33">
+        <v>3</v>
+      </c>
+      <c r="O2" s="34">
+        <v>1</v>
+      </c>
+      <c r="P2" s="33">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="35">
+        <v>1</v>
+      </c>
+      <c r="C3" s="36">
+        <v>1</v>
+      </c>
+      <c r="D3" s="35">
+        <v>2</v>
+      </c>
+      <c r="E3" s="36">
+        <v>1</v>
+      </c>
+      <c r="F3" s="35">
+        <v>3</v>
+      </c>
+      <c r="G3" s="36">
+        <v>1</v>
+      </c>
+      <c r="H3" s="35">
+        <v>0</v>
+      </c>
+      <c r="I3" s="36">
+        <v>0</v>
+      </c>
+      <c r="J3" s="35">
+        <v>0</v>
+      </c>
+      <c r="K3" s="36">
+        <v>0</v>
+      </c>
+      <c r="L3" s="35">
+        <v>3</v>
+      </c>
+      <c r="M3" s="36">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35">
+        <v>3</v>
+      </c>
+      <c r="O3" s="36">
+        <v>1</v>
+      </c>
+      <c r="P3" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="35">
+        <v>2</v>
+      </c>
+      <c r="C4" s="36">
+        <v>1</v>
+      </c>
+      <c r="D4" s="35">
+        <v>2</v>
+      </c>
+      <c r="E4" s="36">
+        <v>1</v>
+      </c>
+      <c r="F4" s="35">
+        <v>3</v>
+      </c>
+      <c r="G4" s="36">
+        <v>1</v>
+      </c>
+      <c r="H4" s="35">
+        <v>0</v>
+      </c>
+      <c r="I4" s="36">
+        <v>0</v>
+      </c>
+      <c r="J4" s="35">
+        <v>0</v>
+      </c>
+      <c r="K4" s="36">
+        <v>1</v>
+      </c>
+      <c r="L4" s="35">
+        <v>2</v>
+      </c>
+      <c r="M4" s="36">
+        <v>3</v>
+      </c>
+      <c r="N4" s="35">
+        <v>3</v>
+      </c>
+      <c r="O4" s="36">
+        <v>2</v>
+      </c>
+      <c r="P4" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="B5" s="35">
+        <v>2</v>
+      </c>
+      <c r="C5" s="36">
+        <v>2</v>
+      </c>
+      <c r="D5" s="35">
+        <v>3</v>
+      </c>
+      <c r="E5" s="36">
+        <v>1</v>
+      </c>
+      <c r="F5" s="35">
+        <v>3</v>
+      </c>
+      <c r="G5" s="36">
+        <v>2</v>
+      </c>
+      <c r="H5" s="35">
+        <v>0</v>
+      </c>
+      <c r="I5" s="36">
+        <v>1</v>
+      </c>
+      <c r="J5" s="35">
+        <v>0</v>
+      </c>
+      <c r="K5" s="36">
+        <v>1</v>
+      </c>
+      <c r="L5" s="35">
+        <v>1</v>
+      </c>
+      <c r="M5" s="36">
+        <v>1</v>
+      </c>
+      <c r="N5" s="35">
+        <v>3</v>
+      </c>
+      <c r="O5" s="36">
+        <v>2</v>
+      </c>
+      <c r="P5" s="35">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" s="35">
+        <v>2</v>
+      </c>
+      <c r="C6" s="36">
+        <v>2</v>
+      </c>
+      <c r="D6" s="35">
+        <v>3</v>
+      </c>
+      <c r="E6" s="36">
+        <v>2</v>
+      </c>
+      <c r="F6" s="35">
+        <v>2</v>
+      </c>
+      <c r="G6" s="36">
+        <v>1</v>
+      </c>
+      <c r="H6" s="35">
+        <v>0</v>
+      </c>
+      <c r="I6" s="36">
+        <v>1</v>
+      </c>
+      <c r="J6" s="35">
+        <v>0</v>
+      </c>
+      <c r="K6" s="36">
+        <v>1</v>
+      </c>
+      <c r="L6" s="35">
+        <v>2</v>
+      </c>
+      <c r="M6" s="36">
+        <v>2</v>
+      </c>
+      <c r="N6" s="35">
+        <v>3</v>
+      </c>
+      <c r="O6" s="36">
+        <v>2</v>
+      </c>
+      <c r="P6" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7" s="35">
+        <v>1</v>
+      </c>
+      <c r="C7" s="36">
+        <v>1</v>
+      </c>
+      <c r="D7" s="35">
+        <v>2</v>
+      </c>
+      <c r="E7" s="36">
+        <v>1</v>
+      </c>
+      <c r="F7" s="35">
+        <v>2</v>
+      </c>
+      <c r="G7" s="36">
+        <v>1</v>
+      </c>
+      <c r="H7" s="35">
+        <v>0</v>
+      </c>
+      <c r="I7" s="36">
+        <v>1</v>
+      </c>
+      <c r="J7" s="35">
+        <v>0</v>
+      </c>
+      <c r="K7" s="36">
+        <v>0</v>
+      </c>
+      <c r="L7" s="35">
+        <v>2</v>
+      </c>
+      <c r="M7" s="36">
+        <v>2</v>
+      </c>
+      <c r="N7" s="35">
+        <v>3</v>
+      </c>
+      <c r="O7" s="36">
+        <v>2</v>
+      </c>
+      <c r="P7" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" s="35">
+        <v>4</v>
+      </c>
+      <c r="C8" s="36">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35">
+        <v>4</v>
+      </c>
+      <c r="E8" s="36">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="35">
+        <v>3</v>
+      </c>
+      <c r="M8" s="36">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35">
+        <v>4</v>
+      </c>
+      <c r="O8" s="36">
+        <v>1</v>
+      </c>
+      <c r="P8" s="35">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="B9" s="35">
+        <v>2</v>
+      </c>
+      <c r="C9" s="36">
+        <v>2</v>
+      </c>
+      <c r="D9" s="35">
+        <v>3</v>
+      </c>
+      <c r="E9" s="36">
+        <v>2</v>
+      </c>
+      <c r="F9" s="35">
+        <v>1</v>
+      </c>
+      <c r="G9" s="36">
+        <v>1</v>
+      </c>
+      <c r="H9" s="35">
+        <v>0</v>
+      </c>
+      <c r="I9" s="36">
+        <v>0</v>
+      </c>
+      <c r="J9" s="35">
+        <v>0</v>
+      </c>
+      <c r="K9" s="36">
+        <v>0</v>
+      </c>
+      <c r="L9" s="35">
+        <v>3</v>
+      </c>
+      <c r="M9" s="36">
+        <v>3</v>
+      </c>
+      <c r="N9" s="35">
+        <v>2</v>
+      </c>
+      <c r="O9" s="36">
+        <v>1</v>
+      </c>
+      <c r="P9" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B10" s="35">
+        <v>4</v>
+      </c>
+      <c r="C10" s="36">
+        <v>4</v>
+      </c>
+      <c r="D10" s="35">
+        <v>3</v>
+      </c>
+      <c r="E10" s="36">
+        <v>2</v>
+      </c>
+      <c r="F10" s="35">
+        <v>3</v>
+      </c>
+      <c r="G10" s="36">
+        <v>2</v>
+      </c>
+      <c r="H10" s="35">
+        <v>0</v>
+      </c>
+      <c r="I10" s="36">
+        <v>0</v>
+      </c>
+      <c r="J10" s="35">
+        <v>1</v>
+      </c>
+      <c r="K10" s="36">
+        <v>1</v>
+      </c>
+      <c r="L10" s="35">
+        <v>3</v>
+      </c>
+      <c r="M10" s="36">
+        <v>2</v>
+      </c>
+      <c r="N10" s="35">
+        <v>3</v>
+      </c>
+      <c r="O10" s="36">
+        <v>2</v>
+      </c>
+      <c r="P10" s="35">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="B11" s="35">
+        <v>3</v>
+      </c>
+      <c r="C11" s="36">
+        <v>3</v>
+      </c>
+      <c r="D11" s="35">
+        <v>4</v>
+      </c>
+      <c r="E11" s="36">
+        <v>3</v>
+      </c>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="35">
+        <v>3</v>
+      </c>
+      <c r="M11" s="36">
+        <v>2</v>
+      </c>
+      <c r="N11" s="35">
+        <v>4</v>
+      </c>
+      <c r="O11" s="36">
+        <v>2</v>
+      </c>
+      <c r="P11" s="35">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="B12" s="35">
+        <v>2</v>
+      </c>
+      <c r="C12" s="36">
+        <v>3</v>
+      </c>
+      <c r="D12" s="35">
+        <v>4</v>
+      </c>
+      <c r="E12" s="36">
+        <v>2</v>
+      </c>
+      <c r="F12" s="35">
+        <v>0</v>
+      </c>
+      <c r="G12" s="36">
+        <v>1</v>
+      </c>
+      <c r="H12" s="35">
+        <v>0</v>
+      </c>
+      <c r="I12" s="36">
+        <v>0</v>
+      </c>
+      <c r="J12" s="35">
+        <v>0</v>
+      </c>
+      <c r="K12" s="36">
+        <v>0</v>
+      </c>
+      <c r="L12" s="35">
+        <v>2</v>
+      </c>
+      <c r="M12" s="36">
+        <v>2</v>
+      </c>
+      <c r="N12" s="35">
+        <v>2</v>
+      </c>
+      <c r="O12" s="36">
+        <v>1</v>
+      </c>
+      <c r="P12" s="35">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="B13" s="35">
+        <v>4</v>
+      </c>
+      <c r="C13" s="36">
+        <v>3</v>
+      </c>
+      <c r="D13" s="35">
+        <v>3</v>
+      </c>
+      <c r="E13" s="36">
+        <v>2</v>
+      </c>
+      <c r="F13" s="35">
+        <v>1</v>
+      </c>
+      <c r="G13" s="36">
+        <v>2</v>
+      </c>
+      <c r="H13" s="35">
+        <v>0</v>
+      </c>
+      <c r="I13" s="36">
+        <v>1</v>
+      </c>
+      <c r="J13" s="35">
+        <v>1</v>
+      </c>
+      <c r="K13" s="36">
+        <v>1</v>
+      </c>
+      <c r="L13" s="35">
+        <v>3</v>
+      </c>
+      <c r="M13" s="36">
+        <v>3</v>
+      </c>
+      <c r="N13" s="35">
+        <v>3</v>
+      </c>
+      <c r="O13" s="36">
+        <v>2</v>
+      </c>
+      <c r="P13" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B14" s="35">
+        <v>2</v>
+      </c>
+      <c r="C14" s="36">
+        <v>1</v>
+      </c>
+      <c r="D14" s="35">
+        <v>3</v>
+      </c>
+      <c r="E14" s="36">
+        <v>1</v>
+      </c>
+      <c r="F14" s="35">
+        <v>2</v>
+      </c>
+      <c r="G14" s="36">
+        <v>1</v>
+      </c>
+      <c r="H14" s="35">
+        <v>1</v>
+      </c>
+      <c r="I14" s="36">
+        <v>0</v>
+      </c>
+      <c r="J14" s="35">
+        <v>0</v>
+      </c>
+      <c r="K14" s="36">
+        <v>0</v>
+      </c>
+      <c r="L14" s="35">
+        <v>1</v>
+      </c>
+      <c r="M14" s="36">
+        <v>0</v>
+      </c>
+      <c r="N14" s="35">
+        <v>3</v>
+      </c>
+      <c r="O14" s="36">
+        <v>0</v>
+      </c>
+      <c r="P14" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B15" s="35">
+        <v>2</v>
+      </c>
+      <c r="C15" s="36">
+        <v>2</v>
+      </c>
+      <c r="D15" s="35">
+        <v>3</v>
+      </c>
+      <c r="E15" s="36">
+        <v>1</v>
+      </c>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="35">
+        <v>0</v>
+      </c>
+      <c r="I15" s="36">
+        <v>0</v>
+      </c>
+      <c r="J15" s="35">
+        <v>0</v>
+      </c>
+      <c r="K15" s="36">
+        <v>0</v>
+      </c>
+      <c r="L15" s="35">
+        <v>1</v>
+      </c>
+      <c r="M15" s="36">
+        <v>1</v>
+      </c>
+      <c r="N15" s="35">
+        <v>3</v>
+      </c>
+      <c r="O15" s="36">
+        <v>0</v>
+      </c>
+      <c r="P15" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B16" s="35">
+        <v>2</v>
+      </c>
+      <c r="C16" s="36">
+        <v>2</v>
+      </c>
+      <c r="D16" s="35">
+        <v>2</v>
+      </c>
+      <c r="E16" s="36">
+        <v>1</v>
+      </c>
+      <c r="F16" s="35">
+        <v>2</v>
+      </c>
+      <c r="G16" s="36">
+        <v>1</v>
+      </c>
+      <c r="H16" s="35">
+        <v>0</v>
+      </c>
+      <c r="I16" s="36">
+        <v>0</v>
+      </c>
+      <c r="J16" s="35">
+        <v>1</v>
+      </c>
+      <c r="K16" s="36">
+        <v>1</v>
+      </c>
+      <c r="L16" s="35">
+        <v>2</v>
+      </c>
+      <c r="M16" s="36">
+        <v>2</v>
+      </c>
+      <c r="N16" s="35">
+        <v>3</v>
+      </c>
+      <c r="O16" s="36">
+        <v>1</v>
+      </c>
+      <c r="P16" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="B17" s="35">
+        <v>3</v>
+      </c>
+      <c r="C17" s="36">
+        <v>3</v>
+      </c>
+      <c r="D17" s="35">
+        <v>3</v>
+      </c>
+      <c r="E17" s="36">
+        <v>3</v>
+      </c>
+      <c r="F17" s="35">
+        <v>1</v>
+      </c>
+      <c r="G17" s="36">
+        <v>1</v>
+      </c>
+      <c r="H17" s="35"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="35">
+        <v>4</v>
+      </c>
+      <c r="M17" s="36">
+        <v>3</v>
+      </c>
+      <c r="N17" s="35">
+        <v>3</v>
+      </c>
+      <c r="O17" s="36">
+        <v>1</v>
+      </c>
+      <c r="P17" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="B18" s="35">
+        <v>3</v>
+      </c>
+      <c r="C18" s="36">
+        <v>2</v>
+      </c>
+      <c r="D18" s="35">
+        <v>4</v>
+      </c>
+      <c r="E18" s="36">
+        <v>2</v>
+      </c>
+      <c r="F18" s="35">
+        <v>0</v>
+      </c>
+      <c r="G18" s="36">
+        <v>0</v>
+      </c>
+      <c r="H18" s="35">
+        <v>0</v>
+      </c>
+      <c r="I18" s="36">
+        <v>0</v>
+      </c>
+      <c r="J18" s="35">
+        <v>0</v>
+      </c>
+      <c r="K18" s="36">
+        <v>0</v>
+      </c>
+      <c r="L18" s="35">
+        <v>3</v>
+      </c>
+      <c r="M18" s="36">
+        <v>2</v>
+      </c>
+      <c r="N18" s="35">
+        <v>3</v>
+      </c>
+      <c r="O18" s="36">
+        <v>3</v>
+      </c>
+      <c r="P18" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="B19" s="35">
+        <v>3</v>
+      </c>
+      <c r="C19" s="36">
+        <v>2</v>
+      </c>
+      <c r="D19" s="35">
+        <v>4</v>
+      </c>
+      <c r="E19" s="36">
+        <v>2</v>
+      </c>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="35">
+        <v>0</v>
+      </c>
+      <c r="I19" s="36">
+        <v>0</v>
+      </c>
+      <c r="J19" s="35">
+        <v>0</v>
+      </c>
+      <c r="K19" s="36">
+        <v>0</v>
+      </c>
+      <c r="L19" s="35">
+        <v>3</v>
+      </c>
+      <c r="M19" s="36">
+        <v>2</v>
+      </c>
+      <c r="N19" s="35">
+        <v>1</v>
+      </c>
+      <c r="O19" s="36">
+        <v>1</v>
+      </c>
+      <c r="P19" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="B20" s="35">
+        <v>3</v>
+      </c>
+      <c r="C20" s="36">
+        <v>2</v>
+      </c>
+      <c r="D20" s="35">
+        <v>4</v>
+      </c>
+      <c r="E20" s="36">
+        <v>2</v>
+      </c>
+      <c r="F20" s="35">
+        <v>1</v>
+      </c>
+      <c r="G20" s="36">
+        <v>0</v>
+      </c>
+      <c r="H20" s="35">
+        <v>0</v>
+      </c>
+      <c r="I20" s="36">
+        <v>0</v>
+      </c>
+      <c r="J20" s="35">
+        <v>0</v>
+      </c>
+      <c r="K20" s="36">
+        <v>0</v>
+      </c>
+      <c r="L20" s="35">
+        <v>2</v>
+      </c>
+      <c r="M20" s="36">
+        <v>2</v>
+      </c>
+      <c r="N20" s="35">
+        <v>2</v>
+      </c>
+      <c r="O20" s="36">
+        <v>1</v>
+      </c>
+      <c r="P20" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="B21" s="35">
+        <v>4</v>
+      </c>
+      <c r="C21" s="36">
+        <v>3</v>
+      </c>
+      <c r="D21" s="35">
+        <v>4</v>
+      </c>
+      <c r="E21" s="36">
+        <v>4</v>
+      </c>
+      <c r="F21" s="35">
+        <v>1</v>
+      </c>
+      <c r="G21" s="36">
+        <v>1</v>
+      </c>
+      <c r="H21" s="35"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="35">
+        <v>3</v>
+      </c>
+      <c r="O21" s="36">
+        <v>1</v>
+      </c>
+      <c r="P21" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="B22" s="35">
+        <v>4</v>
+      </c>
+      <c r="C22" s="36">
+        <v>4</v>
+      </c>
+      <c r="D22" s="35">
+        <v>3</v>
+      </c>
+      <c r="E22" s="36">
+        <v>1</v>
+      </c>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="35">
+        <v>1</v>
+      </c>
+      <c r="M22" s="36">
+        <v>2</v>
+      </c>
+      <c r="N22" s="35">
+        <v>2</v>
+      </c>
+      <c r="O22" s="36">
+        <v>1</v>
+      </c>
+      <c r="P22" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="B23" s="35">
+        <v>3</v>
+      </c>
+      <c r="C23" s="36">
+        <v>2</v>
+      </c>
+      <c r="D23" s="35">
+        <v>3</v>
+      </c>
+      <c r="E23" s="36">
+        <v>2</v>
+      </c>
+      <c r="F23" s="35">
+        <v>2</v>
+      </c>
+      <c r="G23" s="36">
+        <v>1</v>
+      </c>
+      <c r="H23" s="35">
+        <v>0</v>
+      </c>
+      <c r="I23" s="36">
+        <v>0</v>
+      </c>
+      <c r="J23" s="35">
+        <v>0</v>
+      </c>
+      <c r="K23" s="36">
+        <v>1</v>
+      </c>
+      <c r="L23" s="35">
+        <v>1</v>
+      </c>
+      <c r="M23" s="36">
+        <v>1</v>
+      </c>
+      <c r="N23" s="35">
+        <v>3</v>
+      </c>
+      <c r="O23" s="36">
+        <v>1</v>
+      </c>
+      <c r="P23" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="B24" s="35">
+        <v>3</v>
+      </c>
+      <c r="C24" s="36">
+        <v>2</v>
+      </c>
+      <c r="D24" s="35">
+        <v>2</v>
+      </c>
+      <c r="E24" s="36">
+        <v>1</v>
+      </c>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="35">
+        <v>3</v>
+      </c>
+      <c r="O24" s="36">
+        <v>1</v>
+      </c>
+      <c r="P24" s="35">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="B25" s="35">
+        <v>3</v>
+      </c>
+      <c r="C25" s="36">
+        <v>2</v>
+      </c>
+      <c r="D25" s="35">
+        <v>4</v>
+      </c>
+      <c r="E25" s="36">
+        <v>1</v>
+      </c>
+      <c r="F25" s="35">
+        <v>2</v>
+      </c>
+      <c r="G25" s="36">
+        <v>1</v>
+      </c>
+      <c r="H25" s="35">
+        <v>0</v>
+      </c>
+      <c r="I25" s="36">
+        <v>0</v>
+      </c>
+      <c r="J25" s="35"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="35">
+        <v>1</v>
+      </c>
+      <c r="M25" s="36">
+        <v>1</v>
+      </c>
+      <c r="N25" s="35">
+        <v>3</v>
+      </c>
+      <c r="O25" s="36">
+        <v>2</v>
+      </c>
+      <c r="P25" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="B26" s="35">
+        <v>3</v>
+      </c>
+      <c r="C26" s="36">
+        <v>2</v>
+      </c>
+      <c r="D26" s="35">
+        <v>4</v>
+      </c>
+      <c r="E26" s="36">
+        <v>2</v>
+      </c>
+      <c r="F26" s="35">
+        <v>1</v>
+      </c>
+      <c r="G26" s="36">
+        <v>1</v>
+      </c>
+      <c r="H26" s="35">
+        <v>0</v>
+      </c>
+      <c r="I26" s="36">
+        <v>0</v>
+      </c>
+      <c r="J26" s="35">
+        <v>0</v>
+      </c>
+      <c r="K26" s="36">
+        <v>1</v>
+      </c>
+      <c r="L26" s="35">
+        <v>1</v>
+      </c>
+      <c r="M26" s="36">
+        <v>1</v>
+      </c>
+      <c r="N26" s="35">
+        <v>3</v>
+      </c>
+      <c r="O26" s="36">
+        <v>2</v>
+      </c>
+      <c r="P26" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="B27" s="35">
+        <v>3</v>
+      </c>
+      <c r="C27" s="36">
+        <v>3</v>
+      </c>
+      <c r="D27" s="35">
+        <v>3</v>
+      </c>
+      <c r="E27" s="36">
+        <v>2</v>
+      </c>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="35">
+        <v>1</v>
+      </c>
+      <c r="M27" s="36">
+        <v>1</v>
+      </c>
+      <c r="N27" s="35">
+        <v>3</v>
+      </c>
+      <c r="O27" s="36">
+        <v>3</v>
+      </c>
+      <c r="P27" s="35">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="B28" s="35">
+        <v>3</v>
+      </c>
+      <c r="C28" s="36">
+        <v>2</v>
+      </c>
+      <c r="D28" s="35">
+        <v>3</v>
+      </c>
+      <c r="E28" s="36">
+        <v>1</v>
+      </c>
+      <c r="F28" s="35"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="35">
+        <v>2</v>
+      </c>
+      <c r="M28" s="36">
+        <v>2</v>
+      </c>
+      <c r="N28" s="35">
+        <v>3</v>
+      </c>
+      <c r="O28" s="36">
+        <v>1</v>
+      </c>
+      <c r="P28" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="B29" s="35">
+        <v>2</v>
+      </c>
+      <c r="C29" s="36">
+        <v>2</v>
+      </c>
+      <c r="D29" s="35">
+        <v>3</v>
+      </c>
+      <c r="E29" s="36">
+        <v>2</v>
+      </c>
+      <c r="F29" s="35"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="35">
+        <v>3</v>
+      </c>
+      <c r="M29" s="36">
+        <v>2</v>
+      </c>
+      <c r="N29" s="35">
+        <v>3</v>
+      </c>
+      <c r="O29" s="36">
+        <v>2</v>
+      </c>
+      <c r="P29" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="B30" s="35">
+        <v>0</v>
+      </c>
+      <c r="C30" s="36">
+        <v>0</v>
+      </c>
+      <c r="D30" s="35">
+        <v>2</v>
+      </c>
+      <c r="E30" s="36">
+        <v>1</v>
+      </c>
+      <c r="F30" s="35"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="35">
+        <v>0</v>
+      </c>
+      <c r="I30" s="36">
+        <v>0</v>
+      </c>
+      <c r="J30" s="35">
+        <v>0</v>
+      </c>
+      <c r="K30" s="36">
+        <v>0</v>
+      </c>
+      <c r="L30" s="35">
+        <v>0</v>
+      </c>
+      <c r="M30" s="36">
+        <v>0</v>
+      </c>
+      <c r="N30" s="35">
+        <v>3</v>
+      </c>
+      <c r="O30" s="36">
+        <v>1</v>
+      </c>
+      <c r="P30" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="B31" s="35">
+        <v>2</v>
+      </c>
+      <c r="C31" s="36">
+        <v>1</v>
+      </c>
+      <c r="D31" s="35">
+        <v>3</v>
+      </c>
+      <c r="E31" s="36">
+        <v>2</v>
+      </c>
+      <c r="F31" s="35"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="35">
+        <v>0</v>
+      </c>
+      <c r="I31" s="36">
+        <v>0</v>
+      </c>
+      <c r="J31" s="35">
+        <v>0</v>
+      </c>
+      <c r="K31" s="36">
+        <v>0</v>
+      </c>
+      <c r="L31" s="35">
+        <v>2</v>
+      </c>
+      <c r="M31" s="36">
+        <v>2</v>
+      </c>
+      <c r="N31" s="35">
+        <v>3</v>
+      </c>
+      <c r="O31" s="36">
+        <v>2</v>
+      </c>
+      <c r="P31" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="B32" s="35">
+        <v>0</v>
+      </c>
+      <c r="C32" s="36">
+        <v>0</v>
+      </c>
+      <c r="D32" s="35">
+        <v>2</v>
+      </c>
+      <c r="E32" s="36">
+        <v>1</v>
+      </c>
+      <c r="F32" s="35">
+        <v>2</v>
+      </c>
+      <c r="G32" s="36">
+        <v>1</v>
+      </c>
+      <c r="H32" s="35">
+        <v>1</v>
+      </c>
+      <c r="I32" s="36">
+        <v>0</v>
+      </c>
+      <c r="J32" s="35">
+        <v>1</v>
+      </c>
+      <c r="K32" s="36">
+        <v>0</v>
+      </c>
+      <c r="L32" s="35">
+        <v>1</v>
+      </c>
+      <c r="M32" s="36">
+        <v>1</v>
+      </c>
+      <c r="N32" s="35">
+        <v>3</v>
+      </c>
+      <c r="O32" s="36">
+        <v>1</v>
+      </c>
+      <c r="P32" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="B33" s="35">
+        <v>1</v>
+      </c>
+      <c r="C33" s="36">
+        <v>1</v>
+      </c>
+      <c r="D33" s="35">
+        <v>2</v>
+      </c>
+      <c r="E33" s="36">
+        <v>1</v>
+      </c>
+      <c r="F33" s="35">
+        <v>1</v>
+      </c>
+      <c r="G33" s="36">
+        <v>0</v>
+      </c>
+      <c r="H33" s="35">
+        <v>0</v>
+      </c>
+      <c r="I33" s="36">
+        <v>0</v>
+      </c>
+      <c r="J33" s="35">
+        <v>0</v>
+      </c>
+      <c r="K33" s="36">
+        <v>1</v>
+      </c>
+      <c r="L33" s="35">
+        <v>2</v>
+      </c>
+      <c r="M33" s="36">
+        <v>2</v>
+      </c>
+      <c r="N33" s="35">
+        <v>3</v>
+      </c>
+      <c r="O33" s="36">
+        <v>2</v>
+      </c>
+      <c r="P33" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="B34" s="35">
+        <v>2</v>
+      </c>
+      <c r="C34" s="36">
+        <v>2</v>
+      </c>
+      <c r="D34" s="35">
+        <v>3</v>
+      </c>
+      <c r="E34" s="36">
+        <v>2</v>
+      </c>
+      <c r="F34" s="35"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="35">
+        <v>0</v>
+      </c>
+      <c r="I34" s="36">
+        <v>0</v>
+      </c>
+      <c r="J34" s="35">
+        <v>0</v>
+      </c>
+      <c r="K34" s="36">
+        <v>0</v>
+      </c>
+      <c r="L34" s="35">
+        <v>1</v>
+      </c>
+      <c r="M34" s="36">
+        <v>1</v>
+      </c>
+      <c r="N34" s="35">
+        <v>3</v>
+      </c>
+      <c r="O34" s="36">
+        <v>1</v>
+      </c>
+      <c r="P34" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="B35" s="37">
+        <v>2</v>
+      </c>
+      <c r="C35" s="38">
+        <v>0</v>
+      </c>
+      <c r="D35" s="37">
+        <v>3</v>
+      </c>
+      <c r="E35" s="38">
+        <v>1</v>
+      </c>
+      <c r="F35" s="37">
+        <v>1</v>
+      </c>
+      <c r="G35" s="38">
+        <v>1</v>
+      </c>
+      <c r="H35" s="37">
+        <v>1</v>
+      </c>
+      <c r="I35" s="38">
+        <v>0</v>
+      </c>
+      <c r="J35" s="37">
+        <v>2</v>
+      </c>
+      <c r="K35" s="38">
+        <v>1</v>
+      </c>
+      <c r="L35" s="37">
+        <v>2</v>
+      </c>
+      <c r="M35" s="38">
+        <v>2</v>
+      </c>
+      <c r="N35" s="37">
+        <v>3</v>
+      </c>
+      <c r="O35" s="38">
+        <v>2</v>
+      </c>
+      <c r="P35" s="37">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="38">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:C1">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:Q35">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="3"/>
+        <cfvo type="num" val="4"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color rgb="FFFB888A"/>
+        <color rgb="FFFB474A"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="nonsensical">
+      <formula>NOT(ISERROR(SEARCH("nonsensical",B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C3E3A3-0045-9B45-951A-81ED5310E29D}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -13103,9 +15479,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:Q36">
-    <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="nonsensical">
-      <formula>NOT(ISERROR(SEARCH("nonsensical",B2)))</formula>
-    </cfRule>
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -13116,6 +15489,9 @@
         <color rgb="FFFB474A"/>
       </colorScale>
     </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="nonsensical">
+      <formula>NOT(ISERROR(SEARCH("nonsensical",B2)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/observer_study_glide_v1_merge.xlsx
+++ b/observer_study_glide_v1_merge.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakob/Dropbox/GithubMacbook/synth-user-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95517B6E-1F56-C744-B2B0-4892DFA7F3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FEA1B1-110C-2340-85BB-8001CAF4BC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33580" windowHeight="18880" xr2:uid="{28CC47A8-CD98-FE4A-9C7E-76A22A018B7F}"/>
   </bookViews>
   <sheets>
     <sheet name="raw data" sheetId="1" r:id="rId1"/>
-    <sheet name="matrix" sheetId="3" r:id="rId2"/>
-    <sheet name="matrix_vis" sheetId="2" r:id="rId3"/>
+    <sheet name="matrix_vis" sheetId="2" r:id="rId2"/>
+    <sheet name="matrix_nonsensical_as_zero" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1445,11 +1445,581 @@
   </cellStyles>
   <dxfs count="59">
     <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.34998626667073579"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1966,13 +2536,6 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2006,579 +2569,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -2611,6 +2604,13 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2905,52 +2905,52 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E8B36B4E-1E86-C249-A253-3159FBDFEDD1}" name="Tabelle24" displayName="Tabelle24" ref="A1:Q35" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="19">
-  <autoFilter ref="A1:Q35" xr:uid="{41D25344-47BE-3341-8F4E-C7AB1A0D24BB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{41D25344-47BE-3341-8F4E-C7AB1A0D24BB}" name="Tabelle2" displayName="Tabelle2" ref="A1:Q36" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+  <autoFilter ref="A1:Q36" xr:uid="{41D25344-47BE-3341-8F4E-C7AB1A0D24BB}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{33A0D8B2-408C-DC49-BDA4-0DBB7437E75E}" name="prompt" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{D2606102-6A09-5842-B061-E7725ED7B290}" name="microscopy style" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{6088E650-9A58-6F47-9C63-CB0B9BF3F95D}" name="microscopy content" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{6A2C9237-C671-024C-A69E-268C7826BDCC}" name="histopath style" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{17095155-A129-B843-90E8-0A416AB78DF0}" name="histopath content" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{BA923176-6DDD-924A-80B9-0CE6EFCC5E6B}" name="x-ray img. style" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{F6FAA1C3-A769-9F4D-9E28-1CDC11DD6D85}" name="x-ray img. content" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{706FBD21-D43D-0C41-AD26-AD353368225C}" name="MR image style" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{DBD33B4E-1FB4-E840-9033-E8157E3A9E6F}" name="MR image content" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{869668F9-3939-5B4F-B3BE-F93D0AB6DCCA}" name="CT image style" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{6E5B008A-9FCE-E849-B161-C46AEC7F304E}" name="CT image content" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{94C94545-2656-A141-A0ED-A6E3AC1B8D21}" name="photograph style" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{FD94CC94-AE00-F54A-BF22-8386ACC3FBF5}" name="photograph content" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{CAF83977-6639-E845-A562-0A83957BC813}" name="sci poster style" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{E2AD0FA4-6D28-5D41-8A4A-4682E0D8B7C0}" name="sci poster content" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{D5536FC8-690F-D541-92E9-95D5FB040AFE}" name="illustration style" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{024A6FF4-1894-3145-A65A-55141C48E9CA}" name="illustration content" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{06013636-B44B-5042-B75E-784B7A069238}" name="prompt" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{7C11440A-81B1-784B-8D3B-ACEBD8C02ACE}" name="microscopy style" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{9CA64D4A-B98D-0548-B485-2EDF5FB39713}" name="microscopy content" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{8F5CAE55-AB66-0B4F-8EF2-150CC5A4E799}" name="histopath style" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{86E784C1-1E17-374E-9E50-010BAB71D6E3}" name="histopath content" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{47E4944D-DA1E-4249-95EE-52B25D72BB3A}" name="x-ray img. style" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{4F4B773E-A4E5-884F-A851-736604FA9E00}" name="x-ray img. content" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{DF0B097B-7B52-9349-9623-684963C2733E}" name="MR image style" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{D87AA7C8-08D5-4F42-B974-EAAFDBBF15DC}" name="MR image content" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{B5751B67-6B15-A34B-A90D-8D447D3CE608}" name="CT image style" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{9A30E483-AC7D-DF43-B3D9-254A44B9DB41}" name="CT image content" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{67F1638E-B861-6C48-8071-8711C0033991}" name="photograph style" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{85F10E09-C727-CF4D-A7BB-DCFD50C43FB8}" name="photograph content" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{80FA280C-D07F-C447-9D6D-1662BF43BAEB}" name="sci poster style" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{32B874A0-41C5-1445-8215-4B9033D7E75C}" name="sci poster content" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{6EC1D3F0-68C6-894D-9EE4-F738F86873D1}" name="illustration style" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{7D371787-B8EF-6644-8F7B-D66BEF0EBD8C}" name="illustration content" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{41D25344-47BE-3341-8F4E-C7AB1A0D24BB}" name="Tabelle2" displayName="Tabelle2" ref="A1:Q36" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42" totalsRowBorderDxfId="41">
-  <autoFilter ref="A1:Q36" xr:uid="{41D25344-47BE-3341-8F4E-C7AB1A0D24BB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E8B36B4E-1E86-C249-A253-3159FBDFEDD1}" name="Tabelle24" displayName="Tabelle24" ref="A1:Q35" totalsRowShown="0" headerRowDxfId="44" dataDxfId="42" headerRowBorderDxfId="43" tableBorderDxfId="41" totalsRowBorderDxfId="40">
+  <autoFilter ref="A1:Q35" xr:uid="{41D25344-47BE-3341-8F4E-C7AB1A0D24BB}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{06013636-B44B-5042-B75E-784B7A069238}" name="prompt" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{7C11440A-81B1-784B-8D3B-ACEBD8C02ACE}" name="microscopy style" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{9CA64D4A-B98D-0548-B485-2EDF5FB39713}" name="microscopy content" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{8F5CAE55-AB66-0B4F-8EF2-150CC5A4E799}" name="histopath style" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{86E784C1-1E17-374E-9E50-010BAB71D6E3}" name="histopath content" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{47E4944D-DA1E-4249-95EE-52B25D72BB3A}" name="x-ray img. style" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{4F4B773E-A4E5-884F-A851-736604FA9E00}" name="x-ray img. content" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{DF0B097B-7B52-9349-9623-684963C2733E}" name="MR image style" dataDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{D87AA7C8-08D5-4F42-B974-EAAFDBBF15DC}" name="MR image content" dataDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{B5751B67-6B15-A34B-A90D-8D447D3CE608}" name="CT image style" dataDxfId="31"/>
-    <tableColumn id="11" xr3:uid="{9A30E483-AC7D-DF43-B3D9-254A44B9DB41}" name="CT image content" dataDxfId="30"/>
-    <tableColumn id="12" xr3:uid="{67F1638E-B861-6C48-8071-8711C0033991}" name="photograph style" dataDxfId="29"/>
-    <tableColumn id="13" xr3:uid="{85F10E09-C727-CF4D-A7BB-DCFD50C43FB8}" name="photograph content" dataDxfId="28"/>
-    <tableColumn id="14" xr3:uid="{80FA280C-D07F-C447-9D6D-1662BF43BAEB}" name="sci poster style" dataDxfId="27"/>
-    <tableColumn id="15" xr3:uid="{32B874A0-41C5-1445-8215-4B9033D7E75C}" name="sci poster content" dataDxfId="26"/>
-    <tableColumn id="16" xr3:uid="{6EC1D3F0-68C6-894D-9EE4-F738F86873D1}" name="illustration style" dataDxfId="25"/>
-    <tableColumn id="17" xr3:uid="{7D371787-B8EF-6644-8F7B-D66BEF0EBD8C}" name="illustration content" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{33A0D8B2-408C-DC49-BDA4-0DBB7437E75E}" name="prompt" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{D2606102-6A09-5842-B061-E7725ED7B290}" name="microscopy style" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{6088E650-9A58-6F47-9C63-CB0B9BF3F95D}" name="microscopy content" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{6A2C9237-C671-024C-A69E-268C7826BDCC}" name="histopath style" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{17095155-A129-B843-90E8-0A416AB78DF0}" name="histopath content" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{BA923176-6DDD-924A-80B9-0CE6EFCC5E6B}" name="x-ray img. style" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{F6FAA1C3-A769-9F4D-9E28-1CDC11DD6D85}" name="x-ray img. content" dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{706FBD21-D43D-0C41-AD26-AD353368225C}" name="MR image style" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{DBD33B4E-1FB4-E840-9033-E8157E3A9E6F}" name="MR image content" dataDxfId="31"/>
+    <tableColumn id="10" xr3:uid="{869668F9-3939-5B4F-B3BE-F93D0AB6DCCA}" name="CT image style" dataDxfId="30"/>
+    <tableColumn id="11" xr3:uid="{6E5B008A-9FCE-E849-B161-C46AEC7F304E}" name="CT image content" dataDxfId="29"/>
+    <tableColumn id="12" xr3:uid="{94C94545-2656-A141-A0ED-A6E3AC1B8D21}" name="photograph style" dataDxfId="28"/>
+    <tableColumn id="13" xr3:uid="{FD94CC94-AE00-F54A-BF22-8386ACC3FBF5}" name="photograph content" dataDxfId="27"/>
+    <tableColumn id="14" xr3:uid="{CAF83977-6639-E845-A562-0A83957BC813}" name="sci poster style" dataDxfId="26"/>
+    <tableColumn id="15" xr3:uid="{E2AD0FA4-6D28-5D41-8A4A-4682E0D8B7C0}" name="sci poster content" dataDxfId="25"/>
+    <tableColumn id="16" xr3:uid="{D5536FC8-690F-D541-92E9-95D5FB040AFE}" name="illustration style" dataDxfId="24"/>
+    <tableColumn id="17" xr3:uid="{024A6FF4-1894-3145-A65A-55141C48E9CA}" name="illustration content" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3256,7 +3256,7 @@
   <dimension ref="A1:I273"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A196" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F214" sqref="F214"/>
+      <selection activeCell="C237" sqref="C237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11756,11 +11756,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB1B323-EA91-B74B-A19B-1FE933F87E78}">
-  <dimension ref="A1:Q35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C3E3A3-0045-9B45-951A-81ED5310E29D}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12156,12 +12156,24 @@
       <c r="E8" s="36">
         <v>3</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="36"/>
+      <c r="F8" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>272</v>
+      </c>
       <c r="L8" s="35">
         <v>3</v>
       </c>
@@ -12303,12 +12315,24 @@
       <c r="E11" s="36">
         <v>3</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="36"/>
+      <c r="F11" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>272</v>
+      </c>
       <c r="L11" s="35">
         <v>3</v>
       </c>
@@ -12503,8 +12527,12 @@
       <c r="E15" s="36">
         <v>1</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
+      <c r="F15" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>272</v>
+      </c>
       <c r="H15" s="35">
         <v>0</v>
       </c>
@@ -12611,10 +12639,18 @@
       <c r="G17" s="36">
         <v>1</v>
       </c>
-      <c r="H17" s="35"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="36"/>
+      <c r="H17" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>272</v>
+      </c>
       <c r="L17" s="35">
         <v>4</v>
       </c>
@@ -12703,8 +12739,12 @@
       <c r="E19" s="36">
         <v>2</v>
       </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
+      <c r="F19" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>272</v>
+      </c>
       <c r="H19" s="35">
         <v>0</v>
       </c>
@@ -12811,12 +12851,24 @@
       <c r="G21" s="36">
         <v>1</v>
       </c>
-      <c r="H21" s="35"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="36"/>
+      <c r="H21" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="I21" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="J21" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="K21" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="L21" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="M21" s="36" t="s">
+        <v>272</v>
+      </c>
       <c r="N21" s="35">
         <v>3</v>
       </c>
@@ -12846,12 +12898,24 @@
       <c r="E22" s="36">
         <v>1</v>
       </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="36"/>
+      <c r="F22" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="I22" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="J22" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="K22" s="36" t="s">
+        <v>272</v>
+      </c>
       <c r="L22" s="35">
         <v>1</v>
       </c>
@@ -12940,14 +13004,30 @@
       <c r="E24" s="36">
         <v>1</v>
       </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="36"/>
+      <c r="F24" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="G24" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="H24" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="I24" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="J24" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="K24" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="L24" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="M24" s="36" t="s">
+        <v>272</v>
+      </c>
       <c r="N24" s="35">
         <v>3</v>
       </c>
@@ -12989,6 +13069,1979 @@
       <c r="I25" s="36">
         <v>0</v>
       </c>
+      <c r="J25" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="K25" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="L25" s="35">
+        <v>1</v>
+      </c>
+      <c r="M25" s="36">
+        <v>1</v>
+      </c>
+      <c r="N25" s="35">
+        <v>3</v>
+      </c>
+      <c r="O25" s="36">
+        <v>2</v>
+      </c>
+      <c r="P25" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="B26" s="35">
+        <v>3</v>
+      </c>
+      <c r="C26" s="36">
+        <v>2</v>
+      </c>
+      <c r="D26" s="35">
+        <v>4</v>
+      </c>
+      <c r="E26" s="36">
+        <v>2</v>
+      </c>
+      <c r="F26" s="35">
+        <v>1</v>
+      </c>
+      <c r="G26" s="36">
+        <v>1</v>
+      </c>
+      <c r="H26" s="35">
+        <v>0</v>
+      </c>
+      <c r="I26" s="36">
+        <v>0</v>
+      </c>
+      <c r="J26" s="35">
+        <v>0</v>
+      </c>
+      <c r="K26" s="36">
+        <v>1</v>
+      </c>
+      <c r="L26" s="35">
+        <v>1</v>
+      </c>
+      <c r="M26" s="36">
+        <v>1</v>
+      </c>
+      <c r="N26" s="35">
+        <v>3</v>
+      </c>
+      <c r="O26" s="36">
+        <v>2</v>
+      </c>
+      <c r="P26" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="B27" s="35">
+        <v>3</v>
+      </c>
+      <c r="C27" s="36">
+        <v>3</v>
+      </c>
+      <c r="D27" s="35">
+        <v>3</v>
+      </c>
+      <c r="E27" s="36">
+        <v>2</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="G27" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="H27" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="I27" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="J27" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="K27" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="L27" s="35">
+        <v>1</v>
+      </c>
+      <c r="M27" s="36">
+        <v>1</v>
+      </c>
+      <c r="N27" s="35">
+        <v>3</v>
+      </c>
+      <c r="O27" s="36">
+        <v>3</v>
+      </c>
+      <c r="P27" s="35">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="B28" s="35">
+        <v>3</v>
+      </c>
+      <c r="C28" s="36">
+        <v>2</v>
+      </c>
+      <c r="D28" s="35">
+        <v>3</v>
+      </c>
+      <c r="E28" s="36">
+        <v>1</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="G28" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="I28" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="J28" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="K28" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="L28" s="35">
+        <v>2</v>
+      </c>
+      <c r="M28" s="36">
+        <v>2</v>
+      </c>
+      <c r="N28" s="35">
+        <v>3</v>
+      </c>
+      <c r="O28" s="36">
+        <v>1</v>
+      </c>
+      <c r="P28" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="B29" s="35">
+        <v>2</v>
+      </c>
+      <c r="C29" s="36">
+        <v>2</v>
+      </c>
+      <c r="D29" s="35">
+        <v>3</v>
+      </c>
+      <c r="E29" s="36">
+        <v>2</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="G29" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="H29" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="I29" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="J29" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="K29" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="L29" s="35">
+        <v>3</v>
+      </c>
+      <c r="M29" s="36">
+        <v>2</v>
+      </c>
+      <c r="N29" s="35">
+        <v>3</v>
+      </c>
+      <c r="O29" s="36">
+        <v>2</v>
+      </c>
+      <c r="P29" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="B30" s="35">
+        <v>0</v>
+      </c>
+      <c r="C30" s="36">
+        <v>0</v>
+      </c>
+      <c r="D30" s="35">
+        <v>2</v>
+      </c>
+      <c r="E30" s="36">
+        <v>1</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="G30" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="H30" s="35">
+        <v>0</v>
+      </c>
+      <c r="I30" s="36">
+        <v>0</v>
+      </c>
+      <c r="J30" s="35">
+        <v>0</v>
+      </c>
+      <c r="K30" s="36">
+        <v>0</v>
+      </c>
+      <c r="L30" s="35">
+        <v>0</v>
+      </c>
+      <c r="M30" s="36">
+        <v>0</v>
+      </c>
+      <c r="N30" s="35">
+        <v>3</v>
+      </c>
+      <c r="O30" s="36">
+        <v>1</v>
+      </c>
+      <c r="P30" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="B31" s="35">
+        <v>2</v>
+      </c>
+      <c r="C31" s="36">
+        <v>1</v>
+      </c>
+      <c r="D31" s="35">
+        <v>3</v>
+      </c>
+      <c r="E31" s="36">
+        <v>2</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="G31" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="H31" s="35">
+        <v>0</v>
+      </c>
+      <c r="I31" s="36">
+        <v>0</v>
+      </c>
+      <c r="J31" s="35">
+        <v>0</v>
+      </c>
+      <c r="K31" s="36">
+        <v>0</v>
+      </c>
+      <c r="L31" s="35">
+        <v>2</v>
+      </c>
+      <c r="M31" s="36">
+        <v>2</v>
+      </c>
+      <c r="N31" s="35">
+        <v>3</v>
+      </c>
+      <c r="O31" s="36">
+        <v>2</v>
+      </c>
+      <c r="P31" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="B32" s="35">
+        <v>0</v>
+      </c>
+      <c r="C32" s="36">
+        <v>0</v>
+      </c>
+      <c r="D32" s="35">
+        <v>2</v>
+      </c>
+      <c r="E32" s="36">
+        <v>1</v>
+      </c>
+      <c r="F32" s="35">
+        <v>2</v>
+      </c>
+      <c r="G32" s="36">
+        <v>1</v>
+      </c>
+      <c r="H32" s="35">
+        <v>1</v>
+      </c>
+      <c r="I32" s="36">
+        <v>0</v>
+      </c>
+      <c r="J32" s="35">
+        <v>1</v>
+      </c>
+      <c r="K32" s="36">
+        <v>0</v>
+      </c>
+      <c r="L32" s="35">
+        <v>1</v>
+      </c>
+      <c r="M32" s="36">
+        <v>1</v>
+      </c>
+      <c r="N32" s="35">
+        <v>3</v>
+      </c>
+      <c r="O32" s="36">
+        <v>1</v>
+      </c>
+      <c r="P32" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="B33" s="35">
+        <v>1</v>
+      </c>
+      <c r="C33" s="36">
+        <v>1</v>
+      </c>
+      <c r="D33" s="35">
+        <v>2</v>
+      </c>
+      <c r="E33" s="36">
+        <v>1</v>
+      </c>
+      <c r="F33" s="35">
+        <v>1</v>
+      </c>
+      <c r="G33" s="36">
+        <v>0</v>
+      </c>
+      <c r="H33" s="35">
+        <v>0</v>
+      </c>
+      <c r="I33" s="36">
+        <v>0</v>
+      </c>
+      <c r="J33" s="35">
+        <v>0</v>
+      </c>
+      <c r="K33" s="36">
+        <v>1</v>
+      </c>
+      <c r="L33" s="35">
+        <v>2</v>
+      </c>
+      <c r="M33" s="36">
+        <v>2</v>
+      </c>
+      <c r="N33" s="35">
+        <v>3</v>
+      </c>
+      <c r="O33" s="36">
+        <v>2</v>
+      </c>
+      <c r="P33" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="B34" s="35">
+        <v>2</v>
+      </c>
+      <c r="C34" s="36">
+        <v>2</v>
+      </c>
+      <c r="D34" s="35">
+        <v>3</v>
+      </c>
+      <c r="E34" s="36">
+        <v>2</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="H34" s="35">
+        <v>0</v>
+      </c>
+      <c r="I34" s="36">
+        <v>0</v>
+      </c>
+      <c r="J34" s="35">
+        <v>0</v>
+      </c>
+      <c r="K34" s="36">
+        <v>0</v>
+      </c>
+      <c r="L34" s="35">
+        <v>1</v>
+      </c>
+      <c r="M34" s="36">
+        <v>1</v>
+      </c>
+      <c r="N34" s="35">
+        <v>3</v>
+      </c>
+      <c r="O34" s="36">
+        <v>1</v>
+      </c>
+      <c r="P34" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="B35" s="37">
+        <v>2</v>
+      </c>
+      <c r="C35" s="38">
+        <v>0</v>
+      </c>
+      <c r="D35" s="37">
+        <v>3</v>
+      </c>
+      <c r="E35" s="38">
+        <v>1</v>
+      </c>
+      <c r="F35" s="37">
+        <v>1</v>
+      </c>
+      <c r="G35" s="38">
+        <v>1</v>
+      </c>
+      <c r="H35" s="37">
+        <v>1</v>
+      </c>
+      <c r="I35" s="38">
+        <v>0</v>
+      </c>
+      <c r="J35" s="37">
+        <v>2</v>
+      </c>
+      <c r="K35" s="38">
+        <v>1</v>
+      </c>
+      <c r="L35" s="37">
+        <v>2</v>
+      </c>
+      <c r="M35" s="38">
+        <v>2</v>
+      </c>
+      <c r="N35" s="37">
+        <v>3</v>
+      </c>
+      <c r="O35" s="38">
+        <v>2</v>
+      </c>
+      <c r="P35" s="37">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="39" t="s">
+        <v>334</v>
+      </c>
+      <c r="B36" s="40">
+        <f>MEDIAN(B2:B35)</f>
+        <v>2</v>
+      </c>
+      <c r="C36" s="40">
+        <f t="shared" ref="C36:Q36" si="0">MEDIAN(C2:C35)</f>
+        <v>2</v>
+      </c>
+      <c r="D36" s="40">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E36" s="40">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F36" s="40">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G36" s="40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H36" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="40">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M36" s="40">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N36" s="40">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O36" s="40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P36" s="40">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q36" s="40">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:C1">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:Q36">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="3"/>
+        <cfvo type="num" val="4"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color rgb="FFFB888A"/>
+        <color rgb="FFFB474A"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="nonsensical">
+      <formula>NOT(ISERROR(SEARCH("nonsensical",B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB1B323-EA91-B74B-A19B-1FE933F87E78}">
+  <dimension ref="A1:Q35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="17" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="P1" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q1" s="32" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="33">
+        <v>1</v>
+      </c>
+      <c r="C2" s="34">
+        <v>1</v>
+      </c>
+      <c r="D2" s="33">
+        <v>3</v>
+      </c>
+      <c r="E2" s="34">
+        <v>2</v>
+      </c>
+      <c r="F2" s="33">
+        <v>2</v>
+      </c>
+      <c r="G2" s="34">
+        <v>1</v>
+      </c>
+      <c r="H2" s="33">
+        <v>1</v>
+      </c>
+      <c r="I2" s="34">
+        <v>0</v>
+      </c>
+      <c r="J2" s="33">
+        <v>0</v>
+      </c>
+      <c r="K2" s="34">
+        <v>0</v>
+      </c>
+      <c r="L2" s="33">
+        <v>1</v>
+      </c>
+      <c r="M2" s="34">
+        <v>1</v>
+      </c>
+      <c r="N2" s="33">
+        <v>3</v>
+      </c>
+      <c r="O2" s="34">
+        <v>1</v>
+      </c>
+      <c r="P2" s="33">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="35">
+        <v>1</v>
+      </c>
+      <c r="C3" s="36">
+        <v>1</v>
+      </c>
+      <c r="D3" s="35">
+        <v>2</v>
+      </c>
+      <c r="E3" s="36">
+        <v>1</v>
+      </c>
+      <c r="F3" s="35">
+        <v>3</v>
+      </c>
+      <c r="G3" s="36">
+        <v>1</v>
+      </c>
+      <c r="H3" s="35">
+        <v>0</v>
+      </c>
+      <c r="I3" s="36">
+        <v>0</v>
+      </c>
+      <c r="J3" s="35">
+        <v>0</v>
+      </c>
+      <c r="K3" s="36">
+        <v>0</v>
+      </c>
+      <c r="L3" s="35">
+        <v>3</v>
+      </c>
+      <c r="M3" s="36">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35">
+        <v>3</v>
+      </c>
+      <c r="O3" s="36">
+        <v>1</v>
+      </c>
+      <c r="P3" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="35">
+        <v>2</v>
+      </c>
+      <c r="C4" s="36">
+        <v>1</v>
+      </c>
+      <c r="D4" s="35">
+        <v>2</v>
+      </c>
+      <c r="E4" s="36">
+        <v>1</v>
+      </c>
+      <c r="F4" s="35">
+        <v>3</v>
+      </c>
+      <c r="G4" s="36">
+        <v>1</v>
+      </c>
+      <c r="H4" s="35">
+        <v>0</v>
+      </c>
+      <c r="I4" s="36">
+        <v>0</v>
+      </c>
+      <c r="J4" s="35">
+        <v>0</v>
+      </c>
+      <c r="K4" s="36">
+        <v>1</v>
+      </c>
+      <c r="L4" s="35">
+        <v>2</v>
+      </c>
+      <c r="M4" s="36">
+        <v>3</v>
+      </c>
+      <c r="N4" s="35">
+        <v>3</v>
+      </c>
+      <c r="O4" s="36">
+        <v>2</v>
+      </c>
+      <c r="P4" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="B5" s="35">
+        <v>2</v>
+      </c>
+      <c r="C5" s="36">
+        <v>2</v>
+      </c>
+      <c r="D5" s="35">
+        <v>3</v>
+      </c>
+      <c r="E5" s="36">
+        <v>1</v>
+      </c>
+      <c r="F5" s="35">
+        <v>3</v>
+      </c>
+      <c r="G5" s="36">
+        <v>2</v>
+      </c>
+      <c r="H5" s="35">
+        <v>0</v>
+      </c>
+      <c r="I5" s="36">
+        <v>1</v>
+      </c>
+      <c r="J5" s="35">
+        <v>0</v>
+      </c>
+      <c r="K5" s="36">
+        <v>1</v>
+      </c>
+      <c r="L5" s="35">
+        <v>1</v>
+      </c>
+      <c r="M5" s="36">
+        <v>1</v>
+      </c>
+      <c r="N5" s="35">
+        <v>3</v>
+      </c>
+      <c r="O5" s="36">
+        <v>2</v>
+      </c>
+      <c r="P5" s="35">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" s="35">
+        <v>2</v>
+      </c>
+      <c r="C6" s="36">
+        <v>2</v>
+      </c>
+      <c r="D6" s="35">
+        <v>3</v>
+      </c>
+      <c r="E6" s="36">
+        <v>2</v>
+      </c>
+      <c r="F6" s="35">
+        <v>2</v>
+      </c>
+      <c r="G6" s="36">
+        <v>1</v>
+      </c>
+      <c r="H6" s="35">
+        <v>0</v>
+      </c>
+      <c r="I6" s="36">
+        <v>1</v>
+      </c>
+      <c r="J6" s="35">
+        <v>0</v>
+      </c>
+      <c r="K6" s="36">
+        <v>1</v>
+      </c>
+      <c r="L6" s="35">
+        <v>2</v>
+      </c>
+      <c r="M6" s="36">
+        <v>2</v>
+      </c>
+      <c r="N6" s="35">
+        <v>3</v>
+      </c>
+      <c r="O6" s="36">
+        <v>2</v>
+      </c>
+      <c r="P6" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7" s="35">
+        <v>1</v>
+      </c>
+      <c r="C7" s="36">
+        <v>1</v>
+      </c>
+      <c r="D7" s="35">
+        <v>2</v>
+      </c>
+      <c r="E7" s="36">
+        <v>1</v>
+      </c>
+      <c r="F7" s="35">
+        <v>2</v>
+      </c>
+      <c r="G7" s="36">
+        <v>1</v>
+      </c>
+      <c r="H7" s="35">
+        <v>0</v>
+      </c>
+      <c r="I7" s="36">
+        <v>1</v>
+      </c>
+      <c r="J7" s="35">
+        <v>0</v>
+      </c>
+      <c r="K7" s="36">
+        <v>0</v>
+      </c>
+      <c r="L7" s="35">
+        <v>2</v>
+      </c>
+      <c r="M7" s="36">
+        <v>2</v>
+      </c>
+      <c r="N7" s="35">
+        <v>3</v>
+      </c>
+      <c r="O7" s="36">
+        <v>2</v>
+      </c>
+      <c r="P7" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" s="35">
+        <v>4</v>
+      </c>
+      <c r="C8" s="36">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35">
+        <v>4</v>
+      </c>
+      <c r="E8" s="36">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35">
+        <v>0</v>
+      </c>
+      <c r="G8" s="36">
+        <v>0</v>
+      </c>
+      <c r="H8" s="35">
+        <v>0</v>
+      </c>
+      <c r="I8" s="36">
+        <v>0</v>
+      </c>
+      <c r="J8" s="35">
+        <v>0</v>
+      </c>
+      <c r="K8" s="36">
+        <v>0</v>
+      </c>
+      <c r="L8" s="35">
+        <v>3</v>
+      </c>
+      <c r="M8" s="36">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35">
+        <v>4</v>
+      </c>
+      <c r="O8" s="36">
+        <v>1</v>
+      </c>
+      <c r="P8" s="35">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="B9" s="35">
+        <v>2</v>
+      </c>
+      <c r="C9" s="36">
+        <v>2</v>
+      </c>
+      <c r="D9" s="35">
+        <v>3</v>
+      </c>
+      <c r="E9" s="36">
+        <v>2</v>
+      </c>
+      <c r="F9" s="35">
+        <v>1</v>
+      </c>
+      <c r="G9" s="36">
+        <v>1</v>
+      </c>
+      <c r="H9" s="35">
+        <v>0</v>
+      </c>
+      <c r="I9" s="36">
+        <v>0</v>
+      </c>
+      <c r="J9" s="35">
+        <v>0</v>
+      </c>
+      <c r="K9" s="36">
+        <v>0</v>
+      </c>
+      <c r="L9" s="35">
+        <v>3</v>
+      </c>
+      <c r="M9" s="36">
+        <v>3</v>
+      </c>
+      <c r="N9" s="35">
+        <v>2</v>
+      </c>
+      <c r="O9" s="36">
+        <v>1</v>
+      </c>
+      <c r="P9" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B10" s="35">
+        <v>4</v>
+      </c>
+      <c r="C10" s="36">
+        <v>4</v>
+      </c>
+      <c r="D10" s="35">
+        <v>3</v>
+      </c>
+      <c r="E10" s="36">
+        <v>2</v>
+      </c>
+      <c r="F10" s="35">
+        <v>3</v>
+      </c>
+      <c r="G10" s="36">
+        <v>2</v>
+      </c>
+      <c r="H10" s="35">
+        <v>0</v>
+      </c>
+      <c r="I10" s="36">
+        <v>0</v>
+      </c>
+      <c r="J10" s="35">
+        <v>1</v>
+      </c>
+      <c r="K10" s="36">
+        <v>1</v>
+      </c>
+      <c r="L10" s="35">
+        <v>3</v>
+      </c>
+      <c r="M10" s="36">
+        <v>2</v>
+      </c>
+      <c r="N10" s="35">
+        <v>3</v>
+      </c>
+      <c r="O10" s="36">
+        <v>2</v>
+      </c>
+      <c r="P10" s="35">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="B11" s="35">
+        <v>3</v>
+      </c>
+      <c r="C11" s="36">
+        <v>3</v>
+      </c>
+      <c r="D11" s="35">
+        <v>4</v>
+      </c>
+      <c r="E11" s="36">
+        <v>3</v>
+      </c>
+      <c r="F11" s="35">
+        <v>0</v>
+      </c>
+      <c r="G11" s="36">
+        <v>0</v>
+      </c>
+      <c r="H11" s="35">
+        <v>0</v>
+      </c>
+      <c r="I11" s="36">
+        <v>0</v>
+      </c>
+      <c r="J11" s="35">
+        <v>0</v>
+      </c>
+      <c r="K11" s="36">
+        <v>0</v>
+      </c>
+      <c r="L11" s="35">
+        <v>3</v>
+      </c>
+      <c r="M11" s="36">
+        <v>2</v>
+      </c>
+      <c r="N11" s="35">
+        <v>4</v>
+      </c>
+      <c r="O11" s="36">
+        <v>2</v>
+      </c>
+      <c r="P11" s="35">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="B12" s="35">
+        <v>2</v>
+      </c>
+      <c r="C12" s="36">
+        <v>3</v>
+      </c>
+      <c r="D12" s="35">
+        <v>4</v>
+      </c>
+      <c r="E12" s="36">
+        <v>2</v>
+      </c>
+      <c r="F12" s="35">
+        <v>0</v>
+      </c>
+      <c r="G12" s="36">
+        <v>1</v>
+      </c>
+      <c r="H12" s="35">
+        <v>0</v>
+      </c>
+      <c r="I12" s="36">
+        <v>0</v>
+      </c>
+      <c r="J12" s="35">
+        <v>0</v>
+      </c>
+      <c r="K12" s="36">
+        <v>0</v>
+      </c>
+      <c r="L12" s="35">
+        <v>2</v>
+      </c>
+      <c r="M12" s="36">
+        <v>2</v>
+      </c>
+      <c r="N12" s="35">
+        <v>2</v>
+      </c>
+      <c r="O12" s="36">
+        <v>1</v>
+      </c>
+      <c r="P12" s="35">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="B13" s="35">
+        <v>4</v>
+      </c>
+      <c r="C13" s="36">
+        <v>3</v>
+      </c>
+      <c r="D13" s="35">
+        <v>3</v>
+      </c>
+      <c r="E13" s="36">
+        <v>2</v>
+      </c>
+      <c r="F13" s="35">
+        <v>1</v>
+      </c>
+      <c r="G13" s="36">
+        <v>2</v>
+      </c>
+      <c r="H13" s="35">
+        <v>0</v>
+      </c>
+      <c r="I13" s="36">
+        <v>1</v>
+      </c>
+      <c r="J13" s="35">
+        <v>1</v>
+      </c>
+      <c r="K13" s="36">
+        <v>1</v>
+      </c>
+      <c r="L13" s="35">
+        <v>3</v>
+      </c>
+      <c r="M13" s="36">
+        <v>3</v>
+      </c>
+      <c r="N13" s="35">
+        <v>3</v>
+      </c>
+      <c r="O13" s="36">
+        <v>2</v>
+      </c>
+      <c r="P13" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B14" s="35">
+        <v>2</v>
+      </c>
+      <c r="C14" s="36">
+        <v>1</v>
+      </c>
+      <c r="D14" s="35">
+        <v>3</v>
+      </c>
+      <c r="E14" s="36">
+        <v>1</v>
+      </c>
+      <c r="F14" s="35">
+        <v>2</v>
+      </c>
+      <c r="G14" s="36">
+        <v>1</v>
+      </c>
+      <c r="H14" s="35">
+        <v>1</v>
+      </c>
+      <c r="I14" s="36">
+        <v>0</v>
+      </c>
+      <c r="J14" s="35">
+        <v>0</v>
+      </c>
+      <c r="K14" s="36">
+        <v>0</v>
+      </c>
+      <c r="L14" s="35">
+        <v>1</v>
+      </c>
+      <c r="M14" s="36">
+        <v>0</v>
+      </c>
+      <c r="N14" s="35">
+        <v>3</v>
+      </c>
+      <c r="O14" s="36">
+        <v>0</v>
+      </c>
+      <c r="P14" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B15" s="35">
+        <v>2</v>
+      </c>
+      <c r="C15" s="36">
+        <v>2</v>
+      </c>
+      <c r="D15" s="35">
+        <v>3</v>
+      </c>
+      <c r="E15" s="36">
+        <v>1</v>
+      </c>
+      <c r="F15" s="35">
+        <v>0</v>
+      </c>
+      <c r="G15" s="36">
+        <v>0</v>
+      </c>
+      <c r="H15" s="35">
+        <v>0</v>
+      </c>
+      <c r="I15" s="36">
+        <v>0</v>
+      </c>
+      <c r="J15" s="35">
+        <v>0</v>
+      </c>
+      <c r="K15" s="36">
+        <v>0</v>
+      </c>
+      <c r="L15" s="35">
+        <v>1</v>
+      </c>
+      <c r="M15" s="36">
+        <v>1</v>
+      </c>
+      <c r="N15" s="35">
+        <v>3</v>
+      </c>
+      <c r="O15" s="36">
+        <v>0</v>
+      </c>
+      <c r="P15" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B16" s="35">
+        <v>2</v>
+      </c>
+      <c r="C16" s="36">
+        <v>2</v>
+      </c>
+      <c r="D16" s="35">
+        <v>2</v>
+      </c>
+      <c r="E16" s="36">
+        <v>1</v>
+      </c>
+      <c r="F16" s="35">
+        <v>2</v>
+      </c>
+      <c r="G16" s="36">
+        <v>1</v>
+      </c>
+      <c r="H16" s="35">
+        <v>0</v>
+      </c>
+      <c r="I16" s="36">
+        <v>0</v>
+      </c>
+      <c r="J16" s="35">
+        <v>1</v>
+      </c>
+      <c r="K16" s="36">
+        <v>1</v>
+      </c>
+      <c r="L16" s="35">
+        <v>2</v>
+      </c>
+      <c r="M16" s="36">
+        <v>2</v>
+      </c>
+      <c r="N16" s="35">
+        <v>3</v>
+      </c>
+      <c r="O16" s="36">
+        <v>1</v>
+      </c>
+      <c r="P16" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="B17" s="35">
+        <v>3</v>
+      </c>
+      <c r="C17" s="36">
+        <v>3</v>
+      </c>
+      <c r="D17" s="35">
+        <v>3</v>
+      </c>
+      <c r="E17" s="36">
+        <v>3</v>
+      </c>
+      <c r="F17" s="35">
+        <v>1</v>
+      </c>
+      <c r="G17" s="36">
+        <v>1</v>
+      </c>
+      <c r="H17" s="35">
+        <v>0</v>
+      </c>
+      <c r="I17" s="36">
+        <v>0</v>
+      </c>
+      <c r="J17" s="35">
+        <v>0</v>
+      </c>
+      <c r="K17" s="36">
+        <v>0</v>
+      </c>
+      <c r="L17" s="35">
+        <v>4</v>
+      </c>
+      <c r="M17" s="36">
+        <v>3</v>
+      </c>
+      <c r="N17" s="35">
+        <v>3</v>
+      </c>
+      <c r="O17" s="36">
+        <v>1</v>
+      </c>
+      <c r="P17" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="B18" s="35">
+        <v>3</v>
+      </c>
+      <c r="C18" s="36">
+        <v>2</v>
+      </c>
+      <c r="D18" s="35">
+        <v>4</v>
+      </c>
+      <c r="E18" s="36">
+        <v>2</v>
+      </c>
+      <c r="F18" s="35">
+        <v>0</v>
+      </c>
+      <c r="G18" s="36">
+        <v>0</v>
+      </c>
+      <c r="H18" s="35">
+        <v>0</v>
+      </c>
+      <c r="I18" s="36">
+        <v>0</v>
+      </c>
+      <c r="J18" s="35">
+        <v>0</v>
+      </c>
+      <c r="K18" s="36">
+        <v>0</v>
+      </c>
+      <c r="L18" s="35">
+        <v>3</v>
+      </c>
+      <c r="M18" s="36">
+        <v>2</v>
+      </c>
+      <c r="N18" s="35">
+        <v>3</v>
+      </c>
+      <c r="O18" s="36">
+        <v>3</v>
+      </c>
+      <c r="P18" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="B19" s="35">
+        <v>3</v>
+      </c>
+      <c r="C19" s="36">
+        <v>2</v>
+      </c>
+      <c r="D19" s="35">
+        <v>4</v>
+      </c>
+      <c r="E19" s="36">
+        <v>2</v>
+      </c>
+      <c r="F19" s="35">
+        <v>0</v>
+      </c>
+      <c r="G19" s="36">
+        <v>0</v>
+      </c>
+      <c r="H19" s="35">
+        <v>0</v>
+      </c>
+      <c r="I19" s="36">
+        <v>0</v>
+      </c>
+      <c r="J19" s="35">
+        <v>0</v>
+      </c>
+      <c r="K19" s="36">
+        <v>0</v>
+      </c>
+      <c r="L19" s="35">
+        <v>3</v>
+      </c>
+      <c r="M19" s="36">
+        <v>2</v>
+      </c>
+      <c r="N19" s="35">
+        <v>1</v>
+      </c>
+      <c r="O19" s="36">
+        <v>1</v>
+      </c>
+      <c r="P19" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="B20" s="35">
+        <v>3</v>
+      </c>
+      <c r="C20" s="36">
+        <v>2</v>
+      </c>
+      <c r="D20" s="35">
+        <v>4</v>
+      </c>
+      <c r="E20" s="36">
+        <v>2</v>
+      </c>
+      <c r="F20" s="35">
+        <v>1</v>
+      </c>
+      <c r="G20" s="36">
+        <v>0</v>
+      </c>
+      <c r="H20" s="35">
+        <v>0</v>
+      </c>
+      <c r="I20" s="36">
+        <v>0</v>
+      </c>
+      <c r="J20" s="35">
+        <v>0</v>
+      </c>
+      <c r="K20" s="36">
+        <v>0</v>
+      </c>
+      <c r="L20" s="35">
+        <v>2</v>
+      </c>
+      <c r="M20" s="36">
+        <v>2</v>
+      </c>
+      <c r="N20" s="35">
+        <v>2</v>
+      </c>
+      <c r="O20" s="36">
+        <v>1</v>
+      </c>
+      <c r="P20" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="B21" s="35">
+        <v>4</v>
+      </c>
+      <c r="C21" s="36">
+        <v>3</v>
+      </c>
+      <c r="D21" s="35">
+        <v>4</v>
+      </c>
+      <c r="E21" s="36">
+        <v>4</v>
+      </c>
+      <c r="F21" s="35">
+        <v>1</v>
+      </c>
+      <c r="G21" s="36">
+        <v>1</v>
+      </c>
+      <c r="H21" s="35">
+        <v>0</v>
+      </c>
+      <c r="I21" s="36">
+        <v>0</v>
+      </c>
+      <c r="J21" s="35">
+        <v>0</v>
+      </c>
+      <c r="K21" s="36">
+        <v>0</v>
+      </c>
+      <c r="L21" s="35">
+        <v>0</v>
+      </c>
+      <c r="M21" s="36">
+        <v>0</v>
+      </c>
+      <c r="N21" s="35">
+        <v>3</v>
+      </c>
+      <c r="O21" s="36">
+        <v>1</v>
+      </c>
+      <c r="P21" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="B22" s="35">
+        <v>4</v>
+      </c>
+      <c r="C22" s="36">
+        <v>4</v>
+      </c>
+      <c r="D22" s="35">
+        <v>3</v>
+      </c>
+      <c r="E22" s="36">
+        <v>1</v>
+      </c>
+      <c r="F22" s="35">
+        <v>0</v>
+      </c>
+      <c r="G22" s="36">
+        <v>0</v>
+      </c>
+      <c r="H22" s="35">
+        <v>0</v>
+      </c>
+      <c r="I22" s="36">
+        <v>0</v>
+      </c>
+      <c r="J22" s="35">
+        <v>0</v>
+      </c>
+      <c r="K22" s="36">
+        <v>0</v>
+      </c>
+      <c r="L22" s="35">
+        <v>1</v>
+      </c>
+      <c r="M22" s="36">
+        <v>2</v>
+      </c>
+      <c r="N22" s="35">
+        <v>2</v>
+      </c>
+      <c r="O22" s="36">
+        <v>1</v>
+      </c>
+      <c r="P22" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="B23" s="35">
+        <v>3</v>
+      </c>
+      <c r="C23" s="36">
+        <v>2</v>
+      </c>
+      <c r="D23" s="35">
+        <v>3</v>
+      </c>
+      <c r="E23" s="36">
+        <v>2</v>
+      </c>
+      <c r="F23" s="35">
+        <v>2</v>
+      </c>
+      <c r="G23" s="36">
+        <v>1</v>
+      </c>
+      <c r="H23" s="35">
+        <v>0</v>
+      </c>
+      <c r="I23" s="36">
+        <v>0</v>
+      </c>
+      <c r="J23" s="35">
+        <v>0</v>
+      </c>
+      <c r="K23" s="36">
+        <v>1</v>
+      </c>
+      <c r="L23" s="35">
+        <v>1</v>
+      </c>
+      <c r="M23" s="36">
+        <v>1</v>
+      </c>
+      <c r="N23" s="35">
+        <v>3</v>
+      </c>
+      <c r="O23" s="36">
+        <v>1</v>
+      </c>
+      <c r="P23" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="B24" s="35">
+        <v>3</v>
+      </c>
+      <c r="C24" s="36">
+        <v>2</v>
+      </c>
+      <c r="D24" s="35">
+        <v>2</v>
+      </c>
+      <c r="E24" s="36">
+        <v>1</v>
+      </c>
+      <c r="F24" s="35">
+        <v>0</v>
+      </c>
+      <c r="G24" s="36">
+        <v>0</v>
+      </c>
+      <c r="H24" s="35">
+        <v>0</v>
+      </c>
+      <c r="I24" s="36">
+        <v>0</v>
+      </c>
+      <c r="J24" s="35">
+        <v>0</v>
+      </c>
+      <c r="K24" s="36">
+        <v>0</v>
+      </c>
+      <c r="L24" s="35">
+        <v>0</v>
+      </c>
+      <c r="M24" s="36">
+        <v>0</v>
+      </c>
+      <c r="N24" s="35">
+        <v>3</v>
+      </c>
+      <c r="O24" s="36">
+        <v>1</v>
+      </c>
+      <c r="P24" s="35">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="B25" s="35">
+        <v>3</v>
+      </c>
+      <c r="C25" s="36">
+        <v>2</v>
+      </c>
+      <c r="D25" s="35">
+        <v>4</v>
+      </c>
+      <c r="E25" s="36">
+        <v>1</v>
+      </c>
+      <c r="F25" s="35">
+        <v>2</v>
+      </c>
+      <c r="G25" s="36">
+        <v>1</v>
+      </c>
+      <c r="H25" s="35">
+        <v>0</v>
+      </c>
+      <c r="I25" s="36">
+        <v>0</v>
+      </c>
       <c r="J25" s="35"/>
       <c r="K25" s="36"/>
       <c r="L25" s="35">
@@ -13079,12 +15132,24 @@
       <c r="E27" s="36">
         <v>2</v>
       </c>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="36"/>
+      <c r="F27" s="35">
+        <v>0</v>
+      </c>
+      <c r="G27" s="36">
+        <v>0</v>
+      </c>
+      <c r="H27" s="35">
+        <v>0</v>
+      </c>
+      <c r="I27" s="36">
+        <v>0</v>
+      </c>
+      <c r="J27" s="35">
+        <v>0</v>
+      </c>
+      <c r="K27" s="36">
+        <v>0</v>
+      </c>
       <c r="L27" s="35">
         <v>1</v>
       </c>
@@ -13120,12 +15185,24 @@
       <c r="E28" s="36">
         <v>1</v>
       </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="36"/>
+      <c r="F28" s="35">
+        <v>0</v>
+      </c>
+      <c r="G28" s="36">
+        <v>0</v>
+      </c>
+      <c r="H28" s="35">
+        <v>0</v>
+      </c>
+      <c r="I28" s="36">
+        <v>0</v>
+      </c>
+      <c r="J28" s="35">
+        <v>0</v>
+      </c>
+      <c r="K28" s="36">
+        <v>0</v>
+      </c>
       <c r="L28" s="35">
         <v>2</v>
       </c>
@@ -13161,12 +15238,24 @@
       <c r="E29" s="36">
         <v>2</v>
       </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="36"/>
+      <c r="F29" s="35">
+        <v>0</v>
+      </c>
+      <c r="G29" s="36">
+        <v>0</v>
+      </c>
+      <c r="H29" s="35">
+        <v>0</v>
+      </c>
+      <c r="I29" s="36">
+        <v>0</v>
+      </c>
+      <c r="J29" s="35">
+        <v>0</v>
+      </c>
+      <c r="K29" s="36">
+        <v>0</v>
+      </c>
       <c r="L29" s="35">
         <v>3</v>
       </c>
@@ -13202,8 +15291,12 @@
       <c r="E30" s="36">
         <v>1</v>
       </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36"/>
+      <c r="F30" s="35">
+        <v>0</v>
+      </c>
+      <c r="G30" s="36">
+        <v>0</v>
+      </c>
       <c r="H30" s="35">
         <v>0</v>
       </c>
@@ -13251,8 +15344,12 @@
       <c r="E31" s="36">
         <v>2</v>
       </c>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
+      <c r="F31" s="35">
+        <v>0</v>
+      </c>
+      <c r="G31" s="36">
+        <v>0</v>
+      </c>
       <c r="H31" s="35">
         <v>0</v>
       </c>
@@ -13406,8 +15503,12 @@
       <c r="E34" s="36">
         <v>2</v>
       </c>
-      <c r="F34" s="35"/>
-      <c r="G34" s="36"/>
+      <c r="F34" s="35">
+        <v>0</v>
+      </c>
+      <c r="G34" s="36">
+        <v>0</v>
+      </c>
       <c r="H34" s="35">
         <v>0</v>
       </c>
@@ -13516,1980 +15617,7 @@
         <color rgb="FFFB474A"/>
       </colorScale>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="nonsensical">
-      <formula>NOT(ISERROR(SEARCH("nonsensical",B2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C3E3A3-0045-9B45-951A-81ED5310E29D}">
-  <dimension ref="A1:Q36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="17" width="10.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>333</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>317</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>318</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>320</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>322</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>323</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>324</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>325</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>326</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>327</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>328</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>329</v>
-      </c>
-      <c r="O1" s="31" t="s">
-        <v>330</v>
-      </c>
-      <c r="P1" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q1" s="32" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="B2" s="33">
-        <v>1</v>
-      </c>
-      <c r="C2" s="34">
-        <v>1</v>
-      </c>
-      <c r="D2" s="33">
-        <v>3</v>
-      </c>
-      <c r="E2" s="34">
-        <v>2</v>
-      </c>
-      <c r="F2" s="33">
-        <v>2</v>
-      </c>
-      <c r="G2" s="34">
-        <v>1</v>
-      </c>
-      <c r="H2" s="33">
-        <v>1</v>
-      </c>
-      <c r="I2" s="34">
-        <v>0</v>
-      </c>
-      <c r="J2" s="33">
-        <v>0</v>
-      </c>
-      <c r="K2" s="34">
-        <v>0</v>
-      </c>
-      <c r="L2" s="33">
-        <v>1</v>
-      </c>
-      <c r="M2" s="34">
-        <v>1</v>
-      </c>
-      <c r="N2" s="33">
-        <v>3</v>
-      </c>
-      <c r="O2" s="34">
-        <v>1</v>
-      </c>
-      <c r="P2" s="33">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="B3" s="35">
-        <v>1</v>
-      </c>
-      <c r="C3" s="36">
-        <v>1</v>
-      </c>
-      <c r="D3" s="35">
-        <v>2</v>
-      </c>
-      <c r="E3" s="36">
-        <v>1</v>
-      </c>
-      <c r="F3" s="35">
-        <v>3</v>
-      </c>
-      <c r="G3" s="36">
-        <v>1</v>
-      </c>
-      <c r="H3" s="35">
-        <v>0</v>
-      </c>
-      <c r="I3" s="36">
-        <v>0</v>
-      </c>
-      <c r="J3" s="35">
-        <v>0</v>
-      </c>
-      <c r="K3" s="36">
-        <v>0</v>
-      </c>
-      <c r="L3" s="35">
-        <v>3</v>
-      </c>
-      <c r="M3" s="36">
-        <v>3</v>
-      </c>
-      <c r="N3" s="35">
-        <v>3</v>
-      </c>
-      <c r="O3" s="36">
-        <v>1</v>
-      </c>
-      <c r="P3" s="35">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="B4" s="35">
-        <v>2</v>
-      </c>
-      <c r="C4" s="36">
-        <v>1</v>
-      </c>
-      <c r="D4" s="35">
-        <v>2</v>
-      </c>
-      <c r="E4" s="36">
-        <v>1</v>
-      </c>
-      <c r="F4" s="35">
-        <v>3</v>
-      </c>
-      <c r="G4" s="36">
-        <v>1</v>
-      </c>
-      <c r="H4" s="35">
-        <v>0</v>
-      </c>
-      <c r="I4" s="36">
-        <v>0</v>
-      </c>
-      <c r="J4" s="35">
-        <v>0</v>
-      </c>
-      <c r="K4" s="36">
-        <v>1</v>
-      </c>
-      <c r="L4" s="35">
-        <v>2</v>
-      </c>
-      <c r="M4" s="36">
-        <v>3</v>
-      </c>
-      <c r="N4" s="35">
-        <v>3</v>
-      </c>
-      <c r="O4" s="36">
-        <v>2</v>
-      </c>
-      <c r="P4" s="35">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="B5" s="35">
-        <v>2</v>
-      </c>
-      <c r="C5" s="36">
-        <v>2</v>
-      </c>
-      <c r="D5" s="35">
-        <v>3</v>
-      </c>
-      <c r="E5" s="36">
-        <v>1</v>
-      </c>
-      <c r="F5" s="35">
-        <v>3</v>
-      </c>
-      <c r="G5" s="36">
-        <v>2</v>
-      </c>
-      <c r="H5" s="35">
-        <v>0</v>
-      </c>
-      <c r="I5" s="36">
-        <v>1</v>
-      </c>
-      <c r="J5" s="35">
-        <v>0</v>
-      </c>
-      <c r="K5" s="36">
-        <v>1</v>
-      </c>
-      <c r="L5" s="35">
-        <v>1</v>
-      </c>
-      <c r="M5" s="36">
-        <v>1</v>
-      </c>
-      <c r="N5" s="35">
-        <v>3</v>
-      </c>
-      <c r="O5" s="36">
-        <v>2</v>
-      </c>
-      <c r="P5" s="35">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="B6" s="35">
-        <v>2</v>
-      </c>
-      <c r="C6" s="36">
-        <v>2</v>
-      </c>
-      <c r="D6" s="35">
-        <v>3</v>
-      </c>
-      <c r="E6" s="36">
-        <v>2</v>
-      </c>
-      <c r="F6" s="35">
-        <v>2</v>
-      </c>
-      <c r="G6" s="36">
-        <v>1</v>
-      </c>
-      <c r="H6" s="35">
-        <v>0</v>
-      </c>
-      <c r="I6" s="36">
-        <v>1</v>
-      </c>
-      <c r="J6" s="35">
-        <v>0</v>
-      </c>
-      <c r="K6" s="36">
-        <v>1</v>
-      </c>
-      <c r="L6" s="35">
-        <v>2</v>
-      </c>
-      <c r="M6" s="36">
-        <v>2</v>
-      </c>
-      <c r="N6" s="35">
-        <v>3</v>
-      </c>
-      <c r="O6" s="36">
-        <v>2</v>
-      </c>
-      <c r="P6" s="35">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="B7" s="35">
-        <v>1</v>
-      </c>
-      <c r="C7" s="36">
-        <v>1</v>
-      </c>
-      <c r="D7" s="35">
-        <v>2</v>
-      </c>
-      <c r="E7" s="36">
-        <v>1</v>
-      </c>
-      <c r="F7" s="35">
-        <v>2</v>
-      </c>
-      <c r="G7" s="36">
-        <v>1</v>
-      </c>
-      <c r="H7" s="35">
-        <v>0</v>
-      </c>
-      <c r="I7" s="36">
-        <v>1</v>
-      </c>
-      <c r="J7" s="35">
-        <v>0</v>
-      </c>
-      <c r="K7" s="36">
-        <v>0</v>
-      </c>
-      <c r="L7" s="35">
-        <v>2</v>
-      </c>
-      <c r="M7" s="36">
-        <v>2</v>
-      </c>
-      <c r="N7" s="35">
-        <v>3</v>
-      </c>
-      <c r="O7" s="36">
-        <v>2</v>
-      </c>
-      <c r="P7" s="35">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="B8" s="35">
-        <v>4</v>
-      </c>
-      <c r="C8" s="36">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35">
-        <v>4</v>
-      </c>
-      <c r="E8" s="36">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="L8" s="35">
-        <v>3</v>
-      </c>
-      <c r="M8" s="36">
-        <v>3</v>
-      </c>
-      <c r="N8" s="35">
-        <v>4</v>
-      </c>
-      <c r="O8" s="36">
-        <v>1</v>
-      </c>
-      <c r="P8" s="35">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="B9" s="35">
-        <v>2</v>
-      </c>
-      <c r="C9" s="36">
-        <v>2</v>
-      </c>
-      <c r="D9" s="35">
-        <v>3</v>
-      </c>
-      <c r="E9" s="36">
-        <v>2</v>
-      </c>
-      <c r="F9" s="35">
-        <v>1</v>
-      </c>
-      <c r="G9" s="36">
-        <v>1</v>
-      </c>
-      <c r="H9" s="35">
-        <v>0</v>
-      </c>
-      <c r="I9" s="36">
-        <v>0</v>
-      </c>
-      <c r="J9" s="35">
-        <v>0</v>
-      </c>
-      <c r="K9" s="36">
-        <v>0</v>
-      </c>
-      <c r="L9" s="35">
-        <v>3</v>
-      </c>
-      <c r="M9" s="36">
-        <v>3</v>
-      </c>
-      <c r="N9" s="35">
-        <v>2</v>
-      </c>
-      <c r="O9" s="36">
-        <v>1</v>
-      </c>
-      <c r="P9" s="35">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
-        <v>288</v>
-      </c>
-      <c r="B10" s="35">
-        <v>4</v>
-      </c>
-      <c r="C10" s="36">
-        <v>4</v>
-      </c>
-      <c r="D10" s="35">
-        <v>3</v>
-      </c>
-      <c r="E10" s="36">
-        <v>2</v>
-      </c>
-      <c r="F10" s="35">
-        <v>3</v>
-      </c>
-      <c r="G10" s="36">
-        <v>2</v>
-      </c>
-      <c r="H10" s="35">
-        <v>0</v>
-      </c>
-      <c r="I10" s="36">
-        <v>0</v>
-      </c>
-      <c r="J10" s="35">
-        <v>1</v>
-      </c>
-      <c r="K10" s="36">
-        <v>1</v>
-      </c>
-      <c r="L10" s="35">
-        <v>3</v>
-      </c>
-      <c r="M10" s="36">
-        <v>2</v>
-      </c>
-      <c r="N10" s="35">
-        <v>3</v>
-      </c>
-      <c r="O10" s="36">
-        <v>2</v>
-      </c>
-      <c r="P10" s="35">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
-        <v>308</v>
-      </c>
-      <c r="B11" s="35">
-        <v>3</v>
-      </c>
-      <c r="C11" s="36">
-        <v>3</v>
-      </c>
-      <c r="D11" s="35">
-        <v>4</v>
-      </c>
-      <c r="E11" s="36">
-        <v>3</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="H11" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="I11" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="K11" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="L11" s="35">
-        <v>3</v>
-      </c>
-      <c r="M11" s="36">
-        <v>2</v>
-      </c>
-      <c r="N11" s="35">
-        <v>4</v>
-      </c>
-      <c r="O11" s="36">
-        <v>2</v>
-      </c>
-      <c r="P11" s="35">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="B12" s="35">
-        <v>2</v>
-      </c>
-      <c r="C12" s="36">
-        <v>3</v>
-      </c>
-      <c r="D12" s="35">
-        <v>4</v>
-      </c>
-      <c r="E12" s="36">
-        <v>2</v>
-      </c>
-      <c r="F12" s="35">
-        <v>0</v>
-      </c>
-      <c r="G12" s="36">
-        <v>1</v>
-      </c>
-      <c r="H12" s="35">
-        <v>0</v>
-      </c>
-      <c r="I12" s="36">
-        <v>0</v>
-      </c>
-      <c r="J12" s="35">
-        <v>0</v>
-      </c>
-      <c r="K12" s="36">
-        <v>0</v>
-      </c>
-      <c r="L12" s="35">
-        <v>2</v>
-      </c>
-      <c r="M12" s="36">
-        <v>2</v>
-      </c>
-      <c r="N12" s="35">
-        <v>2</v>
-      </c>
-      <c r="O12" s="36">
-        <v>1</v>
-      </c>
-      <c r="P12" s="35">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="B13" s="35">
-        <v>4</v>
-      </c>
-      <c r="C13" s="36">
-        <v>3</v>
-      </c>
-      <c r="D13" s="35">
-        <v>3</v>
-      </c>
-      <c r="E13" s="36">
-        <v>2</v>
-      </c>
-      <c r="F13" s="35">
-        <v>1</v>
-      </c>
-      <c r="G13" s="36">
-        <v>2</v>
-      </c>
-      <c r="H13" s="35">
-        <v>0</v>
-      </c>
-      <c r="I13" s="36">
-        <v>1</v>
-      </c>
-      <c r="J13" s="35">
-        <v>1</v>
-      </c>
-      <c r="K13" s="36">
-        <v>1</v>
-      </c>
-      <c r="L13" s="35">
-        <v>3</v>
-      </c>
-      <c r="M13" s="36">
-        <v>3</v>
-      </c>
-      <c r="N13" s="35">
-        <v>3</v>
-      </c>
-      <c r="O13" s="36">
-        <v>2</v>
-      </c>
-      <c r="P13" s="35">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="B14" s="35">
-        <v>2</v>
-      </c>
-      <c r="C14" s="36">
-        <v>1</v>
-      </c>
-      <c r="D14" s="35">
-        <v>3</v>
-      </c>
-      <c r="E14" s="36">
-        <v>1</v>
-      </c>
-      <c r="F14" s="35">
-        <v>2</v>
-      </c>
-      <c r="G14" s="36">
-        <v>1</v>
-      </c>
-      <c r="H14" s="35">
-        <v>1</v>
-      </c>
-      <c r="I14" s="36">
-        <v>0</v>
-      </c>
-      <c r="J14" s="35">
-        <v>0</v>
-      </c>
-      <c r="K14" s="36">
-        <v>0</v>
-      </c>
-      <c r="L14" s="35">
-        <v>1</v>
-      </c>
-      <c r="M14" s="36">
-        <v>0</v>
-      </c>
-      <c r="N14" s="35">
-        <v>3</v>
-      </c>
-      <c r="O14" s="36">
-        <v>0</v>
-      </c>
-      <c r="P14" s="35">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="B15" s="35">
-        <v>2</v>
-      </c>
-      <c r="C15" s="36">
-        <v>2</v>
-      </c>
-      <c r="D15" s="35">
-        <v>3</v>
-      </c>
-      <c r="E15" s="36">
-        <v>1</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="H15" s="35">
-        <v>0</v>
-      </c>
-      <c r="I15" s="36">
-        <v>0</v>
-      </c>
-      <c r="J15" s="35">
-        <v>0</v>
-      </c>
-      <c r="K15" s="36">
-        <v>0</v>
-      </c>
-      <c r="L15" s="35">
-        <v>1</v>
-      </c>
-      <c r="M15" s="36">
-        <v>1</v>
-      </c>
-      <c r="N15" s="35">
-        <v>3</v>
-      </c>
-      <c r="O15" s="36">
-        <v>0</v>
-      </c>
-      <c r="P15" s="35">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="B16" s="35">
-        <v>2</v>
-      </c>
-      <c r="C16" s="36">
-        <v>2</v>
-      </c>
-      <c r="D16" s="35">
-        <v>2</v>
-      </c>
-      <c r="E16" s="36">
-        <v>1</v>
-      </c>
-      <c r="F16" s="35">
-        <v>2</v>
-      </c>
-      <c r="G16" s="36">
-        <v>1</v>
-      </c>
-      <c r="H16" s="35">
-        <v>0</v>
-      </c>
-      <c r="I16" s="36">
-        <v>0</v>
-      </c>
-      <c r="J16" s="35">
-        <v>1</v>
-      </c>
-      <c r="K16" s="36">
-        <v>1</v>
-      </c>
-      <c r="L16" s="35">
-        <v>2</v>
-      </c>
-      <c r="M16" s="36">
-        <v>2</v>
-      </c>
-      <c r="N16" s="35">
-        <v>3</v>
-      </c>
-      <c r="O16" s="36">
-        <v>1</v>
-      </c>
-      <c r="P16" s="35">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="B17" s="35">
-        <v>3</v>
-      </c>
-      <c r="C17" s="36">
-        <v>3</v>
-      </c>
-      <c r="D17" s="35">
-        <v>3</v>
-      </c>
-      <c r="E17" s="36">
-        <v>3</v>
-      </c>
-      <c r="F17" s="35">
-        <v>1</v>
-      </c>
-      <c r="G17" s="36">
-        <v>1</v>
-      </c>
-      <c r="H17" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="I17" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="J17" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="K17" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="L17" s="35">
-        <v>4</v>
-      </c>
-      <c r="M17" s="36">
-        <v>3</v>
-      </c>
-      <c r="N17" s="35">
-        <v>3</v>
-      </c>
-      <c r="O17" s="36">
-        <v>1</v>
-      </c>
-      <c r="P17" s="35">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="B18" s="35">
-        <v>3</v>
-      </c>
-      <c r="C18" s="36">
-        <v>2</v>
-      </c>
-      <c r="D18" s="35">
-        <v>4</v>
-      </c>
-      <c r="E18" s="36">
-        <v>2</v>
-      </c>
-      <c r="F18" s="35">
-        <v>0</v>
-      </c>
-      <c r="G18" s="36">
-        <v>0</v>
-      </c>
-      <c r="H18" s="35">
-        <v>0</v>
-      </c>
-      <c r="I18" s="36">
-        <v>0</v>
-      </c>
-      <c r="J18" s="35">
-        <v>0</v>
-      </c>
-      <c r="K18" s="36">
-        <v>0</v>
-      </c>
-      <c r="L18" s="35">
-        <v>3</v>
-      </c>
-      <c r="M18" s="36">
-        <v>2</v>
-      </c>
-      <c r="N18" s="35">
-        <v>3</v>
-      </c>
-      <c r="O18" s="36">
-        <v>3</v>
-      </c>
-      <c r="P18" s="35">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="B19" s="35">
-        <v>3</v>
-      </c>
-      <c r="C19" s="36">
-        <v>2</v>
-      </c>
-      <c r="D19" s="35">
-        <v>4</v>
-      </c>
-      <c r="E19" s="36">
-        <v>2</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="H19" s="35">
-        <v>0</v>
-      </c>
-      <c r="I19" s="36">
-        <v>0</v>
-      </c>
-      <c r="J19" s="35">
-        <v>0</v>
-      </c>
-      <c r="K19" s="36">
-        <v>0</v>
-      </c>
-      <c r="L19" s="35">
-        <v>3</v>
-      </c>
-      <c r="M19" s="36">
-        <v>2</v>
-      </c>
-      <c r="N19" s="35">
-        <v>1</v>
-      </c>
-      <c r="O19" s="36">
-        <v>1</v>
-      </c>
-      <c r="P19" s="35">
-        <v>3</v>
-      </c>
-      <c r="Q19" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
-        <v>293</v>
-      </c>
-      <c r="B20" s="35">
-        <v>3</v>
-      </c>
-      <c r="C20" s="36">
-        <v>2</v>
-      </c>
-      <c r="D20" s="35">
-        <v>4</v>
-      </c>
-      <c r="E20" s="36">
-        <v>2</v>
-      </c>
-      <c r="F20" s="35">
-        <v>1</v>
-      </c>
-      <c r="G20" s="36">
-        <v>0</v>
-      </c>
-      <c r="H20" s="35">
-        <v>0</v>
-      </c>
-      <c r="I20" s="36">
-        <v>0</v>
-      </c>
-      <c r="J20" s="35">
-        <v>0</v>
-      </c>
-      <c r="K20" s="36">
-        <v>0</v>
-      </c>
-      <c r="L20" s="35">
-        <v>2</v>
-      </c>
-      <c r="M20" s="36">
-        <v>2</v>
-      </c>
-      <c r="N20" s="35">
-        <v>2</v>
-      </c>
-      <c r="O20" s="36">
-        <v>1</v>
-      </c>
-      <c r="P20" s="35">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="B21" s="35">
-        <v>4</v>
-      </c>
-      <c r="C21" s="36">
-        <v>3</v>
-      </c>
-      <c r="D21" s="35">
-        <v>4</v>
-      </c>
-      <c r="E21" s="36">
-        <v>4</v>
-      </c>
-      <c r="F21" s="35">
-        <v>1</v>
-      </c>
-      <c r="G21" s="36">
-        <v>1</v>
-      </c>
-      <c r="H21" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="I21" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="J21" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="K21" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="L21" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="M21" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="N21" s="35">
-        <v>3</v>
-      </c>
-      <c r="O21" s="36">
-        <v>1</v>
-      </c>
-      <c r="P21" s="35">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="B22" s="35">
-        <v>4</v>
-      </c>
-      <c r="C22" s="36">
-        <v>4</v>
-      </c>
-      <c r="D22" s="35">
-        <v>3</v>
-      </c>
-      <c r="E22" s="36">
-        <v>1</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="G22" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="H22" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="I22" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="J22" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="K22" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="L22" s="35">
-        <v>1</v>
-      </c>
-      <c r="M22" s="36">
-        <v>2</v>
-      </c>
-      <c r="N22" s="35">
-        <v>2</v>
-      </c>
-      <c r="O22" s="36">
-        <v>1</v>
-      </c>
-      <c r="P22" s="35">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="B23" s="35">
-        <v>3</v>
-      </c>
-      <c r="C23" s="36">
-        <v>2</v>
-      </c>
-      <c r="D23" s="35">
-        <v>3</v>
-      </c>
-      <c r="E23" s="36">
-        <v>2</v>
-      </c>
-      <c r="F23" s="35">
-        <v>2</v>
-      </c>
-      <c r="G23" s="36">
-        <v>1</v>
-      </c>
-      <c r="H23" s="35">
-        <v>0</v>
-      </c>
-      <c r="I23" s="36">
-        <v>0</v>
-      </c>
-      <c r="J23" s="35">
-        <v>0</v>
-      </c>
-      <c r="K23" s="36">
-        <v>1</v>
-      </c>
-      <c r="L23" s="35">
-        <v>1</v>
-      </c>
-      <c r="M23" s="36">
-        <v>1</v>
-      </c>
-      <c r="N23" s="35">
-        <v>3</v>
-      </c>
-      <c r="O23" s="36">
-        <v>1</v>
-      </c>
-      <c r="P23" s="35">
-        <v>3</v>
-      </c>
-      <c r="Q23" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="B24" s="35">
-        <v>3</v>
-      </c>
-      <c r="C24" s="36">
-        <v>2</v>
-      </c>
-      <c r="D24" s="35">
-        <v>2</v>
-      </c>
-      <c r="E24" s="36">
-        <v>1</v>
-      </c>
-      <c r="F24" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="G24" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="H24" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="I24" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="J24" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="K24" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="L24" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="M24" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="N24" s="35">
-        <v>3</v>
-      </c>
-      <c r="O24" s="36">
-        <v>1</v>
-      </c>
-      <c r="P24" s="35">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="28" t="s">
-        <v>305</v>
-      </c>
-      <c r="B25" s="35">
-        <v>3</v>
-      </c>
-      <c r="C25" s="36">
-        <v>2</v>
-      </c>
-      <c r="D25" s="35">
-        <v>4</v>
-      </c>
-      <c r="E25" s="36">
-        <v>1</v>
-      </c>
-      <c r="F25" s="35">
-        <v>2</v>
-      </c>
-      <c r="G25" s="36">
-        <v>1</v>
-      </c>
-      <c r="H25" s="35">
-        <v>0</v>
-      </c>
-      <c r="I25" s="36">
-        <v>0</v>
-      </c>
-      <c r="J25" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="K25" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="L25" s="35">
-        <v>1</v>
-      </c>
-      <c r="M25" s="36">
-        <v>1</v>
-      </c>
-      <c r="N25" s="35">
-        <v>3</v>
-      </c>
-      <c r="O25" s="36">
-        <v>2</v>
-      </c>
-      <c r="P25" s="35">
-        <v>3</v>
-      </c>
-      <c r="Q25" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="B26" s="35">
-        <v>3</v>
-      </c>
-      <c r="C26" s="36">
-        <v>2</v>
-      </c>
-      <c r="D26" s="35">
-        <v>4</v>
-      </c>
-      <c r="E26" s="36">
-        <v>2</v>
-      </c>
-      <c r="F26" s="35">
-        <v>1</v>
-      </c>
-      <c r="G26" s="36">
-        <v>1</v>
-      </c>
-      <c r="H26" s="35">
-        <v>0</v>
-      </c>
-      <c r="I26" s="36">
-        <v>0</v>
-      </c>
-      <c r="J26" s="35">
-        <v>0</v>
-      </c>
-      <c r="K26" s="36">
-        <v>1</v>
-      </c>
-      <c r="L26" s="35">
-        <v>1</v>
-      </c>
-      <c r="M26" s="36">
-        <v>1</v>
-      </c>
-      <c r="N26" s="35">
-        <v>3</v>
-      </c>
-      <c r="O26" s="36">
-        <v>2</v>
-      </c>
-      <c r="P26" s="35">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="B27" s="35">
-        <v>3</v>
-      </c>
-      <c r="C27" s="36">
-        <v>3</v>
-      </c>
-      <c r="D27" s="35">
-        <v>3</v>
-      </c>
-      <c r="E27" s="36">
-        <v>2</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="G27" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="H27" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="I27" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="J27" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="K27" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="L27" s="35">
-        <v>1</v>
-      </c>
-      <c r="M27" s="36">
-        <v>1</v>
-      </c>
-      <c r="N27" s="35">
-        <v>3</v>
-      </c>
-      <c r="O27" s="36">
-        <v>3</v>
-      </c>
-      <c r="P27" s="35">
-        <v>2</v>
-      </c>
-      <c r="Q27" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="B28" s="35">
-        <v>3</v>
-      </c>
-      <c r="C28" s="36">
-        <v>2</v>
-      </c>
-      <c r="D28" s="35">
-        <v>3</v>
-      </c>
-      <c r="E28" s="36">
-        <v>1</v>
-      </c>
-      <c r="F28" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="G28" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="H28" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="I28" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="J28" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="K28" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="L28" s="35">
-        <v>2</v>
-      </c>
-      <c r="M28" s="36">
-        <v>2</v>
-      </c>
-      <c r="N28" s="35">
-        <v>3</v>
-      </c>
-      <c r="O28" s="36">
-        <v>1</v>
-      </c>
-      <c r="P28" s="35">
-        <v>3</v>
-      </c>
-      <c r="Q28" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="B29" s="35">
-        <v>2</v>
-      </c>
-      <c r="C29" s="36">
-        <v>2</v>
-      </c>
-      <c r="D29" s="35">
-        <v>3</v>
-      </c>
-      <c r="E29" s="36">
-        <v>2</v>
-      </c>
-      <c r="F29" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="G29" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="H29" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="I29" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="J29" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="K29" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="L29" s="35">
-        <v>3</v>
-      </c>
-      <c r="M29" s="36">
-        <v>2</v>
-      </c>
-      <c r="N29" s="35">
-        <v>3</v>
-      </c>
-      <c r="O29" s="36">
-        <v>2</v>
-      </c>
-      <c r="P29" s="35">
-        <v>3</v>
-      </c>
-      <c r="Q29" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="B30" s="35">
-        <v>0</v>
-      </c>
-      <c r="C30" s="36">
-        <v>0</v>
-      </c>
-      <c r="D30" s="35">
-        <v>2</v>
-      </c>
-      <c r="E30" s="36">
-        <v>1</v>
-      </c>
-      <c r="F30" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="G30" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="H30" s="35">
-        <v>0</v>
-      </c>
-      <c r="I30" s="36">
-        <v>0</v>
-      </c>
-      <c r="J30" s="35">
-        <v>0</v>
-      </c>
-      <c r="K30" s="36">
-        <v>0</v>
-      </c>
-      <c r="L30" s="35">
-        <v>0</v>
-      </c>
-      <c r="M30" s="36">
-        <v>0</v>
-      </c>
-      <c r="N30" s="35">
-        <v>3</v>
-      </c>
-      <c r="O30" s="36">
-        <v>1</v>
-      </c>
-      <c r="P30" s="35">
-        <v>3</v>
-      </c>
-      <c r="Q30" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="B31" s="35">
-        <v>2</v>
-      </c>
-      <c r="C31" s="36">
-        <v>1</v>
-      </c>
-      <c r="D31" s="35">
-        <v>3</v>
-      </c>
-      <c r="E31" s="36">
-        <v>2</v>
-      </c>
-      <c r="F31" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="G31" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="H31" s="35">
-        <v>0</v>
-      </c>
-      <c r="I31" s="36">
-        <v>0</v>
-      </c>
-      <c r="J31" s="35">
-        <v>0</v>
-      </c>
-      <c r="K31" s="36">
-        <v>0</v>
-      </c>
-      <c r="L31" s="35">
-        <v>2</v>
-      </c>
-      <c r="M31" s="36">
-        <v>2</v>
-      </c>
-      <c r="N31" s="35">
-        <v>3</v>
-      </c>
-      <c r="O31" s="36">
-        <v>2</v>
-      </c>
-      <c r="P31" s="35">
-        <v>3</v>
-      </c>
-      <c r="Q31" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="B32" s="35">
-        <v>0</v>
-      </c>
-      <c r="C32" s="36">
-        <v>0</v>
-      </c>
-      <c r="D32" s="35">
-        <v>2</v>
-      </c>
-      <c r="E32" s="36">
-        <v>1</v>
-      </c>
-      <c r="F32" s="35">
-        <v>2</v>
-      </c>
-      <c r="G32" s="36">
-        <v>1</v>
-      </c>
-      <c r="H32" s="35">
-        <v>1</v>
-      </c>
-      <c r="I32" s="36">
-        <v>0</v>
-      </c>
-      <c r="J32" s="35">
-        <v>1</v>
-      </c>
-      <c r="K32" s="36">
-        <v>0</v>
-      </c>
-      <c r="L32" s="35">
-        <v>1</v>
-      </c>
-      <c r="M32" s="36">
-        <v>1</v>
-      </c>
-      <c r="N32" s="35">
-        <v>3</v>
-      </c>
-      <c r="O32" s="36">
-        <v>1</v>
-      </c>
-      <c r="P32" s="35">
-        <v>3</v>
-      </c>
-      <c r="Q32" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="B33" s="35">
-        <v>1</v>
-      </c>
-      <c r="C33" s="36">
-        <v>1</v>
-      </c>
-      <c r="D33" s="35">
-        <v>2</v>
-      </c>
-      <c r="E33" s="36">
-        <v>1</v>
-      </c>
-      <c r="F33" s="35">
-        <v>1</v>
-      </c>
-      <c r="G33" s="36">
-        <v>0</v>
-      </c>
-      <c r="H33" s="35">
-        <v>0</v>
-      </c>
-      <c r="I33" s="36">
-        <v>0</v>
-      </c>
-      <c r="J33" s="35">
-        <v>0</v>
-      </c>
-      <c r="K33" s="36">
-        <v>1</v>
-      </c>
-      <c r="L33" s="35">
-        <v>2</v>
-      </c>
-      <c r="M33" s="36">
-        <v>2</v>
-      </c>
-      <c r="N33" s="35">
-        <v>3</v>
-      </c>
-      <c r="O33" s="36">
-        <v>2</v>
-      </c>
-      <c r="P33" s="35">
-        <v>3</v>
-      </c>
-      <c r="Q33" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="B34" s="35">
-        <v>2</v>
-      </c>
-      <c r="C34" s="36">
-        <v>2</v>
-      </c>
-      <c r="D34" s="35">
-        <v>3</v>
-      </c>
-      <c r="E34" s="36">
-        <v>2</v>
-      </c>
-      <c r="F34" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="G34" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="H34" s="35">
-        <v>0</v>
-      </c>
-      <c r="I34" s="36">
-        <v>0</v>
-      </c>
-      <c r="J34" s="35">
-        <v>0</v>
-      </c>
-      <c r="K34" s="36">
-        <v>0</v>
-      </c>
-      <c r="L34" s="35">
-        <v>1</v>
-      </c>
-      <c r="M34" s="36">
-        <v>1</v>
-      </c>
-      <c r="N34" s="35">
-        <v>3</v>
-      </c>
-      <c r="O34" s="36">
-        <v>1</v>
-      </c>
-      <c r="P34" s="35">
-        <v>3</v>
-      </c>
-      <c r="Q34" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="B35" s="37">
-        <v>2</v>
-      </c>
-      <c r="C35" s="38">
-        <v>0</v>
-      </c>
-      <c r="D35" s="37">
-        <v>3</v>
-      </c>
-      <c r="E35" s="38">
-        <v>1</v>
-      </c>
-      <c r="F35" s="37">
-        <v>1</v>
-      </c>
-      <c r="G35" s="38">
-        <v>1</v>
-      </c>
-      <c r="H35" s="37">
-        <v>1</v>
-      </c>
-      <c r="I35" s="38">
-        <v>0</v>
-      </c>
-      <c r="J35" s="37">
-        <v>2</v>
-      </c>
-      <c r="K35" s="38">
-        <v>1</v>
-      </c>
-      <c r="L35" s="37">
-        <v>2</v>
-      </c>
-      <c r="M35" s="38">
-        <v>2</v>
-      </c>
-      <c r="N35" s="37">
-        <v>3</v>
-      </c>
-      <c r="O35" s="38">
-        <v>2</v>
-      </c>
-      <c r="P35" s="37">
-        <v>3</v>
-      </c>
-      <c r="Q35" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="39" t="s">
-        <v>334</v>
-      </c>
-      <c r="B36" s="40">
-        <f>MEDIAN(B2:B35)</f>
-        <v>2</v>
-      </c>
-      <c r="C36" s="40">
-        <f t="shared" ref="C36:Q36" si="0">MEDIAN(C2:C35)</f>
-        <v>2</v>
-      </c>
-      <c r="D36" s="40">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E36" s="40">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F36" s="40">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G36" s="40">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H36" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="40">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M36" s="40">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N36" s="40">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O36" s="40">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P36" s="40">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="Q36" s="40">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B1:C1">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:Q36">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="3"/>
-        <cfvo type="num" val="4"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <color rgb="FFFB888A"/>
-        <color rgb="FFFB474A"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="nonsensical">
+    <cfRule type="containsText" dxfId="45" priority="2" operator="containsText" text="nonsensical">
       <formula>NOT(ISERROR(SEARCH("nonsensical",B2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/observer_study_glide_v1_merge.xlsx
+++ b/observer_study_glide_v1_merge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakob/Dropbox/GithubMacbook/synth-user-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FEA1B1-110C-2340-85BB-8001CAF4BC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C18EAC-6D97-3640-B9B0-48ECE7A1E861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33580" windowHeight="18880" xr2:uid="{28CC47A8-CD98-FE4A-9C7E-76A22A018B7F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33580" windowHeight="18880" activeTab="2" xr2:uid="{28CC47A8-CD98-FE4A-9C7E-76A22A018B7F}"/>
   </bookViews>
   <sheets>
     <sheet name="raw data" sheetId="1" r:id="rId1"/>
@@ -1950,590 +1950,6 @@
     <dxf>
       <border>
         <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
           <color rgb="FF000000"/>
         </top>
       </border>
@@ -2613,6 +2029,590 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -2905,52 +2905,52 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{41D25344-47BE-3341-8F4E-C7AB1A0D24BB}" name="Tabelle2" displayName="Tabelle2" ref="A1:Q36" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{41D25344-47BE-3341-8F4E-C7AB1A0D24BB}" name="Tabelle2" displayName="Tabelle2" ref="A1:Q36" totalsRowShown="0" headerRowDxfId="44" dataDxfId="42" headerRowBorderDxfId="43" tableBorderDxfId="41" totalsRowBorderDxfId="40">
   <autoFilter ref="A1:Q36" xr:uid="{41D25344-47BE-3341-8F4E-C7AB1A0D24BB}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{06013636-B44B-5042-B75E-784B7A069238}" name="prompt" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{7C11440A-81B1-784B-8D3B-ACEBD8C02ACE}" name="microscopy style" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{9CA64D4A-B98D-0548-B485-2EDF5FB39713}" name="microscopy content" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{8F5CAE55-AB66-0B4F-8EF2-150CC5A4E799}" name="histopath style" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{86E784C1-1E17-374E-9E50-010BAB71D6E3}" name="histopath content" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{47E4944D-DA1E-4249-95EE-52B25D72BB3A}" name="x-ray img. style" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{4F4B773E-A4E5-884F-A851-736604FA9E00}" name="x-ray img. content" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{DF0B097B-7B52-9349-9623-684963C2733E}" name="MR image style" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{D87AA7C8-08D5-4F42-B974-EAAFDBBF15DC}" name="MR image content" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{B5751B67-6B15-A34B-A90D-8D447D3CE608}" name="CT image style" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{9A30E483-AC7D-DF43-B3D9-254A44B9DB41}" name="CT image content" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{67F1638E-B861-6C48-8071-8711C0033991}" name="photograph style" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{85F10E09-C727-CF4D-A7BB-DCFD50C43FB8}" name="photograph content" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{80FA280C-D07F-C447-9D6D-1662BF43BAEB}" name="sci poster style" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{32B874A0-41C5-1445-8215-4B9033D7E75C}" name="sci poster content" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{6EC1D3F0-68C6-894D-9EE4-F738F86873D1}" name="illustration style" dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{7D371787-B8EF-6644-8F7B-D66BEF0EBD8C}" name="illustration content" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{06013636-B44B-5042-B75E-784B7A069238}" name="prompt" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{7C11440A-81B1-784B-8D3B-ACEBD8C02ACE}" name="microscopy style" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{9CA64D4A-B98D-0548-B485-2EDF5FB39713}" name="microscopy content" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{8F5CAE55-AB66-0B4F-8EF2-150CC5A4E799}" name="histopath style" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{86E784C1-1E17-374E-9E50-010BAB71D6E3}" name="histopath content" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{47E4944D-DA1E-4249-95EE-52B25D72BB3A}" name="x-ray img. style" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{4F4B773E-A4E5-884F-A851-736604FA9E00}" name="x-ray img. content" dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{DF0B097B-7B52-9349-9623-684963C2733E}" name="MR image style" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{D87AA7C8-08D5-4F42-B974-EAAFDBBF15DC}" name="MR image content" dataDxfId="31"/>
+    <tableColumn id="10" xr3:uid="{B5751B67-6B15-A34B-A90D-8D447D3CE608}" name="CT image style" dataDxfId="30"/>
+    <tableColumn id="11" xr3:uid="{9A30E483-AC7D-DF43-B3D9-254A44B9DB41}" name="CT image content" dataDxfId="29"/>
+    <tableColumn id="12" xr3:uid="{67F1638E-B861-6C48-8071-8711C0033991}" name="photograph style" dataDxfId="28"/>
+    <tableColumn id="13" xr3:uid="{85F10E09-C727-CF4D-A7BB-DCFD50C43FB8}" name="photograph content" dataDxfId="27"/>
+    <tableColumn id="14" xr3:uid="{80FA280C-D07F-C447-9D6D-1662BF43BAEB}" name="sci poster style" dataDxfId="26"/>
+    <tableColumn id="15" xr3:uid="{32B874A0-41C5-1445-8215-4B9033D7E75C}" name="sci poster content" dataDxfId="25"/>
+    <tableColumn id="16" xr3:uid="{6EC1D3F0-68C6-894D-9EE4-F738F86873D1}" name="illustration style" dataDxfId="24"/>
+    <tableColumn id="17" xr3:uid="{7D371787-B8EF-6644-8F7B-D66BEF0EBD8C}" name="illustration content" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E8B36B4E-1E86-C249-A253-3159FBDFEDD1}" name="Tabelle24" displayName="Tabelle24" ref="A1:Q35" totalsRowShown="0" headerRowDxfId="44" dataDxfId="42" headerRowBorderDxfId="43" tableBorderDxfId="41" totalsRowBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E8B36B4E-1E86-C249-A253-3159FBDFEDD1}" name="Tabelle24" displayName="Tabelle24" ref="A1:Q35" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="A1:Q35" xr:uid="{41D25344-47BE-3341-8F4E-C7AB1A0D24BB}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{33A0D8B2-408C-DC49-BDA4-0DBB7437E75E}" name="prompt" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{D2606102-6A09-5842-B061-E7725ED7B290}" name="microscopy style" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{6088E650-9A58-6F47-9C63-CB0B9BF3F95D}" name="microscopy content" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{6A2C9237-C671-024C-A69E-268C7826BDCC}" name="histopath style" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{17095155-A129-B843-90E8-0A416AB78DF0}" name="histopath content" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{BA923176-6DDD-924A-80B9-0CE6EFCC5E6B}" name="x-ray img. style" dataDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{F6FAA1C3-A769-9F4D-9E28-1CDC11DD6D85}" name="x-ray img. content" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{706FBD21-D43D-0C41-AD26-AD353368225C}" name="MR image style" dataDxfId="32"/>
-    <tableColumn id="9" xr3:uid="{DBD33B4E-1FB4-E840-9033-E8157E3A9E6F}" name="MR image content" dataDxfId="31"/>
-    <tableColumn id="10" xr3:uid="{869668F9-3939-5B4F-B3BE-F93D0AB6DCCA}" name="CT image style" dataDxfId="30"/>
-    <tableColumn id="11" xr3:uid="{6E5B008A-9FCE-E849-B161-C46AEC7F304E}" name="CT image content" dataDxfId="29"/>
-    <tableColumn id="12" xr3:uid="{94C94545-2656-A141-A0ED-A6E3AC1B8D21}" name="photograph style" dataDxfId="28"/>
-    <tableColumn id="13" xr3:uid="{FD94CC94-AE00-F54A-BF22-8386ACC3FBF5}" name="photograph content" dataDxfId="27"/>
-    <tableColumn id="14" xr3:uid="{CAF83977-6639-E845-A562-0A83957BC813}" name="sci poster style" dataDxfId="26"/>
-    <tableColumn id="15" xr3:uid="{E2AD0FA4-6D28-5D41-8A4A-4682E0D8B7C0}" name="sci poster content" dataDxfId="25"/>
-    <tableColumn id="16" xr3:uid="{D5536FC8-690F-D541-92E9-95D5FB040AFE}" name="illustration style" dataDxfId="24"/>
-    <tableColumn id="17" xr3:uid="{024A6FF4-1894-3145-A65A-55141C48E9CA}" name="illustration content" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{33A0D8B2-408C-DC49-BDA4-0DBB7437E75E}" name="prompt" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{D2606102-6A09-5842-B061-E7725ED7B290}" name="microscopy style" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{6088E650-9A58-6F47-9C63-CB0B9BF3F95D}" name="microscopy content" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{6A2C9237-C671-024C-A69E-268C7826BDCC}" name="histopath style" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{17095155-A129-B843-90E8-0A416AB78DF0}" name="histopath content" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{BA923176-6DDD-924A-80B9-0CE6EFCC5E6B}" name="x-ray img. style" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{F6FAA1C3-A769-9F4D-9E28-1CDC11DD6D85}" name="x-ray img. content" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{706FBD21-D43D-0C41-AD26-AD353368225C}" name="MR image style" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{DBD33B4E-1FB4-E840-9033-E8157E3A9E6F}" name="MR image content" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{869668F9-3939-5B4F-B3BE-F93D0AB6DCCA}" name="CT image style" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{6E5B008A-9FCE-E849-B161-C46AEC7F304E}" name="CT image content" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{94C94545-2656-A141-A0ED-A6E3AC1B8D21}" name="photograph style" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{FD94CC94-AE00-F54A-BF22-8386ACC3FBF5}" name="photograph content" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{CAF83977-6639-E845-A562-0A83957BC813}" name="sci poster style" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{E2AD0FA4-6D28-5D41-8A4A-4682E0D8B7C0}" name="sci poster content" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{D5536FC8-690F-D541-92E9-95D5FB040AFE}" name="illustration style" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{024A6FF4-1894-3145-A65A-55141C48E9CA}" name="illustration content" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3255,7 +3255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87748135-191D-0046-BB58-2417C92212D4}">
   <dimension ref="A1:I273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="A196" zoomScale="75" workbookViewId="0">
       <selection activeCell="C237" sqref="C237"/>
     </sheetView>
   </sheetViews>
@@ -13717,7 +13717,7 @@
         <color rgb="FFFB474A"/>
       </colorScale>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="nonsensical">
+    <cfRule type="containsText" dxfId="45" priority="4" operator="containsText" text="nonsensical">
       <formula>NOT(ISERROR(SEARCH("nonsensical",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13732,8 +13732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB1B323-EA91-B74B-A19B-1FE933F87E78}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15042,8 +15042,12 @@
       <c r="I25" s="36">
         <v>0</v>
       </c>
-      <c r="J25" s="35"/>
-      <c r="K25" s="36"/>
+      <c r="J25" s="35">
+        <v>0</v>
+      </c>
+      <c r="K25" s="36">
+        <v>0</v>
+      </c>
       <c r="L25" s="35">
         <v>1</v>
       </c>
@@ -15617,7 +15621,7 @@
         <color rgb="FFFB474A"/>
       </colorScale>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="2" operator="containsText" text="nonsensical">
+    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="nonsensical">
       <formula>NOT(ISERROR(SEARCH("nonsensical",B2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/observer_study_glide_v1_merge.xlsx
+++ b/observer_study_glide_v1_merge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakob/Dropbox/GithubMacbook/synth-user-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C18EAC-6D97-3640-B9B0-48ECE7A1E861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9829BD7D-EFF5-9B4F-AB5C-19EEE26E11B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33580" windowHeight="18880" activeTab="2" xr2:uid="{28CC47A8-CD98-FE4A-9C7E-76A22A018B7F}"/>
   </bookViews>
